--- a/docs/FCYBL Rankings.xlsx
+++ b/docs/FCYBL Rankings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\fcybl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\fcybl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -110,9 +110,6 @@
     <t>BRYC - MAYES</t>
   </si>
   <si>
-    <t>0.500*</t>
-  </si>
-  <si>
     <t>ARLINGTON - MCLEAN</t>
   </si>
   <si>
@@ -1256,13 +1253,16 @@
     <t>Tiebreakers that are integers (no decimals) are lottery draws.</t>
   </si>
   <si>
-    <t>*0.500: No common games. 0-0 record equates to 0.500 for ranking.</t>
-  </si>
-  <si>
     <t>For full rules and lottery draws, please consult FCYLB website.</t>
   </si>
   <si>
     <t>FCYBL 2019-2020 Final Regular Season Rankings</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>----- denotes no games played in a group.  0-0 record equates to 0.500 for ranking.</t>
   </si>
 </sst>
 </file>
@@ -1699,7 +1699,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1720,22 +1720,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1777,7 +1777,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>9</v>
@@ -1786,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>11</v>
@@ -1803,16 +1803,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>11</v>
@@ -1829,16 +1829,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>11</v>
@@ -1855,16 +1855,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>11</v>
@@ -1881,16 +1881,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>11</v>
@@ -1907,16 +1907,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>11</v>
@@ -1933,19 +1933,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>11</v>
@@ -1959,19 +1959,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>11</v>
@@ -1985,19 +1985,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>11</v>
@@ -2011,19 +2011,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>11</v>
@@ -2037,19 +2037,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>11</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>11</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>24</v>
@@ -2135,7 +2135,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>11</v>
@@ -2152,16 +2152,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>11</v>
@@ -2178,25 +2178,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>11</v>
@@ -2204,25 +2204,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>11</v>
@@ -2230,19 +2230,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>11</v>
@@ -2256,19 +2256,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>11</v>
@@ -2282,25 +2282,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>11</v>
@@ -2308,25 +2308,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D32" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="G32" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>366</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>11</v>
@@ -2334,16 +2334,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>11</v>
@@ -2360,22 +2360,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>11</v>
@@ -2386,22 +2386,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D35" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>367</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>368</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>11</v>
@@ -2412,19 +2412,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>11</v>
@@ -2438,25 +2438,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H37" s="19" t="s">
         <v>11</v>
@@ -2464,25 +2464,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>369</v>
-      </c>
       <c r="E38" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>11</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="40" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2527,16 +2527,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>11</v>
@@ -2553,19 +2553,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>11</v>
@@ -2579,19 +2579,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>11</v>
@@ -2605,16 +2605,16 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>11</v>
@@ -2631,16 +2631,16 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>11</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>11</v>
@@ -2683,16 +2683,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>11</v>
@@ -2709,22 +2709,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>11</v>
@@ -2735,22 +2735,22 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>11</v>
@@ -2761,16 +2761,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>11</v>
@@ -2787,16 +2787,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>11</v>
@@ -2813,16 +2813,16 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B53" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="D53" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>11</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="55" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2876,22 +2876,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>11</v>
@@ -2902,22 +2902,22 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>11</v>
@@ -2928,16 +2928,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>11</v>
@@ -2954,16 +2954,16 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>11</v>
@@ -2980,19 +2980,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F61" s="16" t="s">
         <v>11</v>
@@ -3006,19 +3006,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F62" s="16" t="s">
         <v>11</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>11</v>
@@ -3058,16 +3058,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>11</v>
@@ -3084,16 +3084,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>11</v>
@@ -3110,16 +3110,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>11</v>
@@ -3136,16 +3136,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>11</v>
@@ -3162,19 +3162,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>11</v>
@@ -3188,19 +3188,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>11</v>
@@ -3214,19 +3214,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F70" s="16" t="s">
         <v>11</v>
@@ -3240,16 +3240,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>11</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="73" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -3303,16 +3303,16 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>342</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>11</v>
@@ -3329,16 +3329,16 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>11</v>
@@ -3355,16 +3355,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>11</v>
@@ -3381,16 +3381,16 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>11</v>
@@ -3407,16 +3407,16 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>11</v>
@@ -3433,19 +3433,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F80" s="16" t="s">
         <v>11</v>
@@ -3459,19 +3459,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F81" s="16" t="s">
         <v>11</v>
@@ -3485,16 +3485,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>11</v>
@@ -3511,19 +3511,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F83" s="16" t="s">
         <v>11</v>
@@ -3537,19 +3537,19 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F84" s="16" t="s">
         <v>11</v>
@@ -3563,16 +3563,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>11</v>
@@ -3589,16 +3589,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>11</v>
@@ -3615,16 +3615,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B87" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="16" t="s">
-        <v>85</v>
-      </c>
       <c r="D87" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>11</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="89" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -3678,16 +3678,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>342</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>11</v>
@@ -3704,16 +3704,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>11</v>
@@ -3730,16 +3730,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>11</v>
@@ -3756,16 +3756,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>11</v>
@@ -3782,16 +3782,16 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>11</v>
@@ -3808,16 +3808,16 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>11</v>
@@ -3834,19 +3834,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F97" s="16" t="s">
         <v>11</v>
@@ -3860,19 +3860,19 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F98" s="16" t="s">
         <v>11</v>
@@ -3886,16 +3886,16 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>11</v>
@@ -3912,16 +3912,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>11</v>
@@ -3938,16 +3938,16 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>11</v>
@@ -3964,16 +3964,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>11</v>
@@ -3990,16 +3990,16 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>11</v>
@@ -4016,16 +4016,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>11</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="106" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -4079,16 +4079,16 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>11</v>
@@ -4105,16 +4105,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>11</v>
@@ -4131,16 +4131,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>11</v>
@@ -4157,16 +4157,16 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>11</v>
@@ -4183,16 +4183,16 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>11</v>
@@ -4209,16 +4209,16 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>11</v>
@@ -4235,16 +4235,16 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>11</v>
@@ -4261,16 +4261,16 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>11</v>
@@ -4287,16 +4287,16 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E116" s="16" t="s">
         <v>11</v>
@@ -4313,16 +4313,16 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D117" s="16" t="s">
         <v>358</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>359</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>11</v>
@@ -4339,16 +4339,16 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E118" s="16" t="s">
         <v>11</v>
@@ -4365,16 +4365,16 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>11</v>
@@ -4391,16 +4391,16 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E120" s="16" t="s">
         <v>11</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="122" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -4454,16 +4454,16 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E124" s="16" t="s">
         <v>11</v>
@@ -4480,16 +4480,16 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E125" s="16" t="s">
         <v>11</v>
@@ -4506,16 +4506,16 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E126" s="16" t="s">
         <v>11</v>
@@ -4532,16 +4532,16 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E127" s="16" t="s">
         <v>11</v>
@@ -4558,16 +4558,16 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E128" s="16" t="s">
         <v>11</v>
@@ -4584,19 +4584,19 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F129" s="16" t="s">
         <v>11</v>
@@ -4610,19 +4610,19 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F130" s="16" t="s">
         <v>11</v>
@@ -4636,19 +4636,19 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F131" s="16" t="s">
         <v>11</v>
@@ -4662,19 +4662,19 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>356</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>357</v>
       </c>
       <c r="F132" s="16" t="s">
         <v>11</v>
@@ -4688,16 +4688,16 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E133" s="16" t="s">
         <v>11</v>
@@ -4714,16 +4714,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E134" s="16" t="s">
         <v>11</v>
@@ -4740,16 +4740,16 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E135" s="16" t="s">
         <v>11</v>
@@ -4766,16 +4766,16 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E136" s="16" t="s">
         <v>11</v>
@@ -4792,16 +4792,16 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E137" s="16" t="s">
         <v>11</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="139" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -4855,16 +4855,16 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E141" s="16" t="s">
         <v>11</v>
@@ -4881,16 +4881,16 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E142" s="16" t="s">
         <v>11</v>
@@ -4907,16 +4907,16 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D143" s="16" t="s">
         <v>345</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D143" s="16" t="s">
-        <v>346</v>
       </c>
       <c r="E143" s="16" t="s">
         <v>11</v>
@@ -4933,16 +4933,16 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E144" s="16" t="s">
         <v>11</v>
@@ -4959,16 +4959,16 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E145" s="16" t="s">
         <v>11</v>
@@ -4985,16 +4985,16 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E146" s="16" t="s">
         <v>11</v>
@@ -5011,19 +5011,19 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F147" s="16" t="s">
         <v>11</v>
@@ -5037,19 +5037,19 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F148" s="16" t="s">
         <v>11</v>
@@ -5063,19 +5063,19 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="E149" s="16" t="s">
         <v>356</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>357</v>
       </c>
       <c r="F149" s="16" t="s">
         <v>11</v>
@@ -5089,16 +5089,16 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E150" s="16" t="s">
         <v>11</v>
@@ -5115,16 +5115,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B151" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C151" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C151" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="D151" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E151" s="16" t="s">
         <v>11</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="153" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -5178,16 +5178,16 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E155" s="16" t="s">
         <v>11</v>
@@ -5204,16 +5204,16 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E156" s="16" t="s">
         <v>11</v>
@@ -5230,16 +5230,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E157" s="16" t="s">
         <v>11</v>
@@ -5256,16 +5256,16 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E158" s="16" t="s">
         <v>11</v>
@@ -5282,16 +5282,16 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E159" s="16" t="s">
         <v>11</v>
@@ -5308,16 +5308,16 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E160" s="16" t="s">
         <v>11</v>
@@ -5334,16 +5334,16 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E161" s="16" t="s">
         <v>11</v>
@@ -5360,16 +5360,16 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E162" s="16" t="s">
         <v>11</v>
@@ -5386,16 +5386,16 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E163" s="16" t="s">
         <v>11</v>
@@ -5412,16 +5412,16 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E164" s="16" t="s">
         <v>11</v>
@@ -5438,16 +5438,16 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E165" s="16" t="s">
         <v>11</v>
@@ -5464,22 +5464,22 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G166" s="16" t="s">
         <v>11</v>
@@ -5490,22 +5490,22 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G167" s="16" t="s">
         <v>11</v>
@@ -5516,16 +5516,16 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E168" s="16" t="s">
         <v>11</v>
@@ -5542,16 +5542,16 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E169" s="16" t="s">
         <v>11</v>
@@ -5568,16 +5568,16 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E170" s="16" t="s">
         <v>11</v>
@@ -5594,16 +5594,16 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E171" s="16" t="s">
         <v>11</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="173" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -5657,16 +5657,16 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>11</v>
@@ -5683,16 +5683,16 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E176" s="16" t="s">
         <v>11</v>
@@ -5709,19 +5709,19 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D177" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="B177" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D177" s="16" t="s">
-        <v>346</v>
-      </c>
       <c r="E177" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F177" s="16" t="s">
         <v>11</v>
@@ -5735,19 +5735,19 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F178" s="16" t="s">
         <v>11</v>
@@ -5761,16 +5761,16 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B179" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>11</v>
@@ -5787,16 +5787,16 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>11</v>
@@ -5813,16 +5813,16 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E181" s="16" t="s">
         <v>11</v>
@@ -5839,16 +5839,16 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E182" s="16" t="s">
         <v>11</v>
@@ -5865,19 +5865,19 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F183" s="16" t="s">
         <v>11</v>
@@ -5891,19 +5891,19 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F184" s="16" t="s">
         <v>11</v>
@@ -5917,19 +5917,19 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F185" s="16" t="s">
         <v>11</v>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F186" s="16" t="s">
         <v>11</v>
@@ -5969,16 +5969,16 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E187" s="16" t="s">
         <v>11</v>
@@ -5995,16 +5995,16 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E188" s="16" t="s">
         <v>11</v>
@@ -6021,16 +6021,16 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E189" s="16" t="s">
         <v>11</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="191" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
@@ -6084,16 +6084,16 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E193" s="16" t="s">
         <v>11</v>
@@ -6110,16 +6110,16 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E194" s="16" t="s">
         <v>11</v>
@@ -6136,16 +6136,16 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D195" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E195" s="16" t="s">
         <v>11</v>
@@ -6162,16 +6162,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E196" s="16" t="s">
         <v>11</v>
@@ -6188,16 +6188,16 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E197" s="16" t="s">
         <v>11</v>
@@ -6214,16 +6214,16 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E198" s="16" t="s">
         <v>11</v>
@@ -6240,16 +6240,16 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E199" s="16" t="s">
         <v>11</v>
@@ -6266,16 +6266,16 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E200" s="16" t="s">
         <v>11</v>
@@ -6292,16 +6292,16 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D201" s="16" t="s">
         <v>356</v>
-      </c>
-      <c r="B201" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C201" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D201" s="16" t="s">
-        <v>357</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>11</v>
@@ -6318,7 +6318,7 @@
     </row>
     <row r="203" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
@@ -6355,16 +6355,16 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D205" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E205" s="16" t="s">
         <v>11</v>
@@ -6381,16 +6381,16 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D206" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="B206" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C206" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="D206" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>11</v>
@@ -6407,16 +6407,16 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E207" s="16" t="s">
         <v>11</v>
@@ -6433,16 +6433,16 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D208" s="16" t="s">
         <v>347</v>
-      </c>
-      <c r="B208" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D208" s="16" t="s">
-        <v>348</v>
       </c>
       <c r="E208" s="16" t="s">
         <v>11</v>
@@ -6459,16 +6459,16 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D209" s="16" t="s">
         <v>349</v>
-      </c>
-      <c r="B209" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D209" s="16" t="s">
-        <v>350</v>
       </c>
       <c r="E209" s="16" t="s">
         <v>11</v>
@@ -6485,19 +6485,19 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F210" s="16" t="s">
         <v>11</v>
@@ -6511,19 +6511,19 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F211" s="16" t="s">
         <v>11</v>
@@ -6537,16 +6537,16 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E212" s="16" t="s">
         <v>11</v>
@@ -6563,19 +6563,19 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F213" s="16" t="s">
         <v>11</v>
@@ -6589,19 +6589,19 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F214" s="16" t="s">
         <v>11</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="216" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
@@ -6652,22 +6652,22 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C218" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F218" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G218" s="16" t="s">
         <v>11</v>
@@ -6678,22 +6678,22 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C219" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F219" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G219" s="16" t="s">
         <v>11</v>
@@ -6704,16 +6704,16 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D220" s="16" t="s">
         <v>345</v>
-      </c>
-      <c r="B220" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D220" s="16" t="s">
-        <v>346</v>
       </c>
       <c r="E220" s="16" t="s">
         <v>11</v>
@@ -6730,16 +6730,16 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D221" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E221" s="16" t="s">
         <v>11</v>
@@ -6756,16 +6756,16 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D222" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E222" s="16" t="s">
         <v>11</v>
@@ -6782,19 +6782,19 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D223" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F223" s="16" t="s">
         <v>11</v>
@@ -6808,19 +6808,19 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D224" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F224" s="16" t="s">
         <v>11</v>
@@ -6834,19 +6834,19 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D225" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F225" s="16" t="s">
         <v>11</v>
@@ -6860,16 +6860,16 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D226" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E226" s="16" t="s">
         <v>11</v>
@@ -6886,16 +6886,16 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D227" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E227" s="16" t="s">
         <v>11</v>
@@ -6912,16 +6912,16 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D228" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E228" s="16" t="s">
         <v>11</v>
@@ -6938,19 +6938,19 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D229" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="B229" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C229" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="D229" s="16" t="s">
-        <v>362</v>
-      </c>
       <c r="E229" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F229" s="16" t="s">
         <v>11</v>
@@ -6964,19 +6964,19 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D230" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F230" s="16" t="s">
         <v>11</v>
@@ -6990,16 +6990,16 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B231" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C231" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C231" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="D231" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E231" s="16" t="s">
         <v>11</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="233" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
@@ -7053,16 +7053,16 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D235" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E235" s="16" t="s">
         <v>11</v>
@@ -7079,19 +7079,19 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D236" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F236" s="16" t="s">
         <v>11</v>
@@ -7105,19 +7105,19 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D237" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F237" s="16" t="s">
         <v>11</v>
@@ -7131,16 +7131,16 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D238" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E238" s="16" t="s">
         <v>11</v>
@@ -7157,22 +7157,22 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B239" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D239" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B239" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C239" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="D239" s="16" t="s">
-        <v>350</v>
-      </c>
       <c r="E239" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F239" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G239" s="16" t="s">
         <v>11</v>
@@ -7183,22 +7183,22 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D240" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F240" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G240" s="16" t="s">
         <v>11</v>
@@ -7209,16 +7209,16 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D241" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E241" s="16" t="s">
         <v>11</v>
@@ -7235,16 +7235,16 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D242" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E242" s="16" t="s">
         <v>11</v>
@@ -7261,16 +7261,16 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B243" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D243" s="16" t="s">
         <v>356</v>
-      </c>
-      <c r="B243" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C243" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D243" s="16" t="s">
-        <v>357</v>
       </c>
       <c r="E243" s="16" t="s">
         <v>11</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="245" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -7324,16 +7324,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D247" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E247" s="16" t="s">
         <v>11</v>
@@ -7350,16 +7350,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D248" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E248" s="16" t="s">
         <v>11</v>
@@ -7376,16 +7376,16 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D249" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E249" s="16" t="s">
         <v>11</v>
@@ -7402,19 +7402,19 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D250" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F250" s="16" t="s">
         <v>11</v>
@@ -7428,19 +7428,19 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D251" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F251" s="16" t="s">
         <v>11</v>
@@ -7454,22 +7454,22 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D252" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F252" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G252" s="16" t="s">
         <v>11</v>
@@ -7480,22 +7480,22 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D253" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G253" s="16" t="s">
         <v>11</v>
@@ -7506,16 +7506,16 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D254" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E254" s="16" t="s">
         <v>11</v>
@@ -7532,16 +7532,16 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D255" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E255" s="16" t="s">
         <v>11</v>
@@ -7558,19 +7558,19 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D256" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F256" s="16" t="s">
         <v>11</v>
@@ -7584,19 +7584,19 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D257" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F257" s="16" t="s">
         <v>11</v>
@@ -7610,16 +7610,16 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D258" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E258" s="16" t="s">
         <v>11</v>
@@ -7636,19 +7636,19 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D259" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F259" s="16" t="s">
         <v>11</v>
@@ -7662,19 +7662,19 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F260" s="16" t="s">
         <v>11</v>
@@ -7688,22 +7688,22 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F261" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G261" s="16" t="s">
         <v>11</v>
@@ -7714,22 +7714,22 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="F262" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G262" s="16" t="s">
         <v>11</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="264" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
@@ -7777,16 +7777,16 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D266" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E266" s="16" t="s">
         <v>11</v>
@@ -7803,16 +7803,16 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D267" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E267" s="16" t="s">
         <v>11</v>
@@ -7829,16 +7829,16 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D268" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E268" s="16" t="s">
         <v>11</v>
@@ -7855,16 +7855,16 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D269" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E269" s="16" t="s">
         <v>11</v>
@@ -7881,16 +7881,16 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E270" s="16" t="s">
         <v>11</v>
@@ -7907,19 +7907,19 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F271" s="16" t="s">
         <v>11</v>
@@ -7933,19 +7933,19 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F272" s="16" t="s">
         <v>11</v>
@@ -7959,19 +7959,19 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D273" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F273" s="16" t="s">
         <v>11</v>
@@ -7985,19 +7985,19 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B274" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D274" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E274" s="16" t="s">
         <v>356</v>
-      </c>
-      <c r="B274" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C274" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D274" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="E274" s="16" t="s">
-        <v>357</v>
       </c>
       <c r="F274" s="16" t="s">
         <v>11</v>
@@ -8011,16 +8011,16 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E275" s="16" t="s">
         <v>11</v>
@@ -8037,16 +8037,16 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D276" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E276" s="16" t="s">
         <v>11</v>
@@ -8063,16 +8063,16 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E277" s="16" t="s">
         <v>11</v>
@@ -8089,16 +8089,16 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E278" s="16" t="s">
         <v>11</v>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="280" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
@@ -8152,16 +8152,16 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C282" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D282" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="B282" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C282" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D282" s="16" t="s">
-        <v>342</v>
       </c>
       <c r="E282" s="16" t="s">
         <v>11</v>
@@ -8178,16 +8178,16 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D283" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E283" s="16" t="s">
         <v>11</v>
@@ -8204,16 +8204,16 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B284" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C284" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D284" s="16" t="s">
         <v>345</v>
-      </c>
-      <c r="B284" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C284" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D284" s="16" t="s">
-        <v>346</v>
       </c>
       <c r="E284" s="16" t="s">
         <v>11</v>
@@ -8230,16 +8230,16 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E285" s="16" t="s">
         <v>11</v>
@@ -8256,16 +8256,16 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D286" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E286" s="16" t="s">
         <v>11</v>
@@ -8282,16 +8282,16 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D287" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E287" s="16" t="s">
         <v>11</v>
@@ -8308,16 +8308,16 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D288" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E288" s="16" t="s">
         <v>11</v>
@@ -8334,16 +8334,16 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D289" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E289" s="16" t="s">
         <v>11</v>
@@ -8360,16 +8360,16 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D290" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E290" s="16" t="s">
         <v>11</v>
@@ -8386,16 +8386,16 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D291" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E291" s="16" t="s">
         <v>11</v>
@@ -8412,16 +8412,16 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E292" s="16" t="s">
         <v>11</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="294" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C294" s="9"/>
       <c r="D294" s="9"/>
@@ -8475,16 +8475,16 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B296" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D296" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="B296" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C296" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="D296" s="16" t="s">
-        <v>342</v>
       </c>
       <c r="E296" s="16" t="s">
         <v>11</v>
@@ -8501,16 +8501,16 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E297" s="16" t="s">
         <v>11</v>
@@ -8527,16 +8527,16 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E298" s="16" t="s">
         <v>11</v>
@@ -8553,16 +8553,16 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E299" s="16" t="s">
         <v>11</v>
@@ -8579,16 +8579,16 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E300" s="16" t="s">
         <v>11</v>
@@ -8605,19 +8605,19 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F301" s="16" t="s">
         <v>11</v>
@@ -8631,19 +8631,19 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F302" s="16" t="s">
         <v>11</v>
@@ -8657,16 +8657,16 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E303" s="16" t="s">
         <v>11</v>
@@ -8683,16 +8683,16 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D304" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E304" s="16" t="s">
         <v>11</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="306" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C306" s="9"/>
       <c r="D306" s="9"/>
@@ -8746,19 +8746,19 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B308" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C308" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D308" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="E308" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="B308" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C308" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="D308" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="E308" s="16" t="s">
-        <v>342</v>
       </c>
       <c r="F308" s="16" t="s">
         <v>11</v>
@@ -8772,19 +8772,19 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D309" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F309" s="16" t="s">
         <v>11</v>
@@ -8798,19 +8798,19 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D310" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F310" s="16" t="s">
         <v>11</v>
@@ -8824,16 +8824,16 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D311" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E311" s="16" t="s">
         <v>11</v>
@@ -8850,16 +8850,16 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D312" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E312" s="16" t="s">
         <v>11</v>
@@ -8876,16 +8876,16 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D313" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E313" s="16" t="s">
         <v>11</v>
@@ -8902,16 +8902,16 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D314" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E314" s="16" t="s">
         <v>11</v>
@@ -8928,16 +8928,16 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D315" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E315" s="16" t="s">
         <v>11</v>
@@ -8954,16 +8954,16 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E316" s="16" t="s">
         <v>11</v>
@@ -8980,16 +8980,16 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B317" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D317" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E317" s="16" t="s">
         <v>11</v>
@@ -9006,16 +9006,16 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D318" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E318" s="16" t="s">
         <v>11</v>
@@ -9032,16 +9032,16 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D319" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E319" s="16" t="s">
         <v>11</v>
@@ -9058,16 +9058,16 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E320" s="16" t="s">
         <v>11</v>
@@ -9084,16 +9084,16 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D321" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E321" s="16" t="s">
         <v>11</v>

--- a/docs/FCYBL Rankings.xlsx
+++ b/docs/FCYBL Rankings.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\fcybl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E2CFA5-F473-4EDC-B368-9995AB4CFDA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4110" windowWidth="20760" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="20760" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="407">
   <si>
     <t>B5-D1</t>
   </si>
@@ -1201,9 +1200,6 @@
   </si>
   <si>
     <t>0.600</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
   <si>
     <t>16</t>
@@ -1254,7 +1250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1679,7 +1675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1701,7 +1697,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1722,7 +1718,7 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1733,7 +1729,7 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1749,13 +1745,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2152,7 +2148,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>334</v>
@@ -2210,7 +2206,7 @@
         <v>338</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>337</v>
@@ -2236,7 +2232,7 @@
         <v>338</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>356</v>
@@ -2256,7 +2252,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>366</v>
@@ -2317,7 +2313,7 @@
         <v>349</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>341</v>
@@ -2343,7 +2339,7 @@
         <v>349</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G33" s="23" t="s">
         <v>358</v>
@@ -2392,7 +2388,7 @@
         <v>359</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>11</v>
@@ -2473,7 +2469,7 @@
         <v>349</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>339</v>
@@ -2499,7 +2495,7 @@
         <v>349</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>363</v>
@@ -2611,7 +2607,7 @@
         <v>364</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>11</v>
@@ -2663,10 +2659,10 @@
         <v>367</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>11</v>
@@ -2689,10 +2685,10 @@
         <v>367</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>11</v>
@@ -2908,7 +2904,7 @@
         <v>370</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>337</v>
@@ -2934,7 +2930,7 @@
         <v>370</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>356</v>
@@ -3220,7 +3216,7 @@
         <v>378</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F70" s="16" t="s">
         <v>11</v>
@@ -5331,13 +5327,13 @@
         <v>343</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E161" s="23" t="s">
         <v>11</v>
@@ -5357,13 +5353,13 @@
         <v>345</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E162" s="23" t="s">
         <v>11</v>
@@ -5383,13 +5379,13 @@
         <v>347</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E163" s="23" t="s">
         <v>11</v>
@@ -5409,13 +5405,13 @@
         <v>348</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="E164" s="23" t="s">
         <v>11</v>
@@ -5435,19 +5431,19 @@
         <v>350</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="E165" s="23" t="s">
-        <v>400</v>
+        <v>11</v>
       </c>
       <c r="F165" s="23" t="s">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="G165" s="23" t="s">
         <v>11</v>
@@ -5461,7 +5457,7 @@
         <v>352</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C166" s="23" t="s">
         <v>303</v>
@@ -5470,10 +5466,10 @@
         <v>374</v>
       </c>
       <c r="E166" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F166" s="23" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G166" s="23" t="s">
         <v>11</v>
@@ -5487,19 +5483,19 @@
         <v>353</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="E167" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F167" s="23" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G167" s="23" t="s">
         <v>11</v>
@@ -5513,19 +5509,19 @@
         <v>362</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D168" s="23" t="s">
         <v>359</v>
       </c>
       <c r="E168" s="23" t="s">
-        <v>400</v>
+        <v>11</v>
       </c>
       <c r="F168" s="23" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="G168" s="23" t="s">
         <v>11</v>
@@ -5588,7 +5584,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B171" s="15" t="s">
         <v>156</v>
@@ -5614,7 +5610,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B172" s="15" t="s">
         <v>134</v>
@@ -5842,7 +5838,7 @@
         <v>328</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E182" s="23" t="s">
         <v>11</v>
@@ -6191,7 +6187,7 @@
         <v>328</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>11</v>
@@ -6436,7 +6432,7 @@
         <v>329</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E208" s="23" t="s">
         <v>11</v>
@@ -6684,7 +6680,7 @@
         <v>334</v>
       </c>
       <c r="E219" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F219" s="23" t="s">
         <v>341</v>
@@ -6710,7 +6706,7 @@
         <v>334</v>
       </c>
       <c r="E220" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F220" s="23" t="s">
         <v>356</v>
@@ -6759,7 +6755,7 @@
         <v>330</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E222" s="23" t="s">
         <v>11</v>
@@ -7486,10 +7482,10 @@
         <v>366</v>
       </c>
       <c r="E253" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F253" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G253" s="23" t="s">
         <v>11</v>
@@ -7512,7 +7508,7 @@
         <v>366</v>
       </c>
       <c r="E254" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F254" s="23" t="s">
         <v>358</v>
@@ -7720,7 +7716,7 @@
         <v>349</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F262" s="16" t="s">
         <v>337</v>
@@ -7734,7 +7730,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B263" s="15" t="s">
         <v>234</v>
@@ -7746,7 +7742,7 @@
         <v>349</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F263" s="16" t="s">
         <v>362</v>
@@ -8582,7 +8578,7 @@
         <v>328</v>
       </c>
       <c r="D300" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E300" s="23" t="s">
         <v>11</v>
@@ -9087,7 +9083,7 @@
         <v>332</v>
       </c>
       <c r="D321" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E321" s="16" t="s">
         <v>11</v>

--- a/docs/FCYBL Rankings.xlsx
+++ b/docs/FCYBL Rankings.xlsx
@@ -5708,7 +5708,7 @@
         <v>299</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>11</v>
@@ -5864,7 +5864,7 @@
         <v>315</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>11</v>
@@ -5893,7 +5893,7 @@
         <v>375</v>
       </c>
       <c r="E184" s="23" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="F184" s="23" t="s">
         <v>11</v>
@@ -5916,10 +5916,10 @@
         <v>321</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E185" s="23" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="F185" s="23" t="s">
         <v>11</v>
@@ -5936,16 +5936,16 @@
         <v>352</v>
       </c>
       <c r="B186" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D186" s="23" t="s">
         <v>377</v>
       </c>
       <c r="E186" s="23" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="F186" s="23" t="s">
         <v>11</v>
@@ -5962,16 +5962,16 @@
         <v>353</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="E187" s="23" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="F187" s="23" t="s">
         <v>11</v>
@@ -5997,7 +5997,7 @@
         <v>351</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>11</v>
+        <v>349</v>
       </c>
       <c r="F188" s="16" t="s">
         <v>11</v>
@@ -6020,10 +6020,10 @@
         <v>324</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>11</v>
+        <v>334</v>
       </c>
       <c r="F189" s="16" t="s">
         <v>11</v>
@@ -6049,7 +6049,7 @@
         <v>369</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>11</v>
+        <v>349</v>
       </c>
       <c r="F190" s="16" t="s">
         <v>11</v>

--- a/docs/FCYBL Rankings.xlsx
+++ b/docs/FCYBL Rankings.xlsx
@@ -1220,9 +1220,6 @@
     <t>0.100</t>
   </si>
   <si>
-    <t>FCYBL 2019-2020 Final Regular Season Rankings</t>
-  </si>
-  <si>
     <t>-----</t>
   </si>
   <si>
@@ -1245,6 +1242,9 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>FCYBL 2019-2020 Regular Season Rankings</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1697,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>334</v>
@@ -2206,7 +2206,7 @@
         <v>338</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>337</v>
@@ -2232,7 +2232,7 @@
         <v>338</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>356</v>
@@ -2252,7 +2252,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>366</v>
@@ -2313,7 +2313,7 @@
         <v>349</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>341</v>
@@ -2339,7 +2339,7 @@
         <v>349</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G33" s="23" t="s">
         <v>358</v>
@@ -2388,7 +2388,7 @@
         <v>359</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>11</v>
@@ -2469,7 +2469,7 @@
         <v>349</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>339</v>
@@ -2495,7 +2495,7 @@
         <v>349</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>363</v>
@@ -2607,7 +2607,7 @@
         <v>364</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>11</v>
@@ -2659,7 +2659,7 @@
         <v>367</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>392</v>
@@ -2685,10 +2685,10 @@
         <v>367</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>11</v>
@@ -2904,7 +2904,7 @@
         <v>370</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>337</v>
@@ -2930,7 +2930,7 @@
         <v>370</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>356</v>
@@ -3216,7 +3216,7 @@
         <v>378</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F70" s="16" t="s">
         <v>11</v>
@@ -5466,7 +5466,7 @@
         <v>374</v>
       </c>
       <c r="E166" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F166" s="23" t="s">
         <v>348</v>
@@ -5492,7 +5492,7 @@
         <v>374</v>
       </c>
       <c r="E167" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F167" s="23" t="s">
         <v>360</v>
@@ -6680,7 +6680,7 @@
         <v>334</v>
       </c>
       <c r="E219" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F219" s="23" t="s">
         <v>341</v>
@@ -6706,7 +6706,7 @@
         <v>334</v>
       </c>
       <c r="E220" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F220" s="23" t="s">
         <v>356</v>
@@ -7482,7 +7482,7 @@
         <v>366</v>
       </c>
       <c r="E253" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F253" s="23" t="s">
         <v>393</v>
@@ -7508,7 +7508,7 @@
         <v>366</v>
       </c>
       <c r="E254" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F254" s="23" t="s">
         <v>358</v>
@@ -7716,7 +7716,7 @@
         <v>349</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F262" s="16" t="s">
         <v>337</v>
@@ -7742,7 +7742,7 @@
         <v>349</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F263" s="16" t="s">
         <v>362</v>

--- a/docs/FCYBL Rankings.xlsx
+++ b/docs/FCYBL Rankings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\fcybl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEA6094-C532-4075-B85C-27F0B7F5D1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4110" windowWidth="20760" windowHeight="14625"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="408">
   <si>
     <t>B5-D1</t>
   </si>
@@ -179,9 +180,6 @@
     <t>GUM SPRINGS - SPROCKER</t>
   </si>
   <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
     <t>B6-D1</t>
   </si>
   <si>
@@ -677,9 +675,6 @@
     <t>MCLEAN - MURRELL</t>
   </si>
   <si>
-    <t>0-10-0</t>
-  </si>
-  <si>
     <t>G6-D2</t>
   </si>
   <si>
@@ -887,9 +882,6 @@
     <t>4-4-0</t>
   </si>
   <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
     <t>3-5-0</t>
   </si>
   <si>
@@ -911,15 +903,6 @@
     <t>2-7-0</t>
   </si>
   <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
     <t>10-1-0</t>
   </si>
   <si>
@@ -941,9 +924,6 @@
     <t>4-7-0</t>
   </si>
   <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
     <t>3-8-0</t>
   </si>
   <si>
@@ -974,9 +954,6 @@
     <t>5-7-0</t>
   </si>
   <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
     <t>3-9-0</t>
   </si>
   <si>
@@ -992,39 +969,18 @@
     <t>4-8-0</t>
   </si>
   <si>
-    <t>8-2-1</t>
-  </si>
-  <si>
-    <t>5-5-1</t>
-  </si>
-  <si>
     <t>2-10-0</t>
   </si>
   <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
     <t>8-5-0</t>
   </si>
   <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
     <t>6-7-0</t>
   </si>
   <si>
     <t>7-2-0</t>
   </si>
   <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>3-3-1</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -1058,9 +1014,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>0.429</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -1115,24 +1068,12 @@
     <t>13</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>0.857</t>
-  </si>
-  <si>
     <t>0.833</t>
   </si>
   <si>
     <t>0.667</t>
   </si>
   <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.286</t>
-  </si>
-  <si>
     <t>0.167</t>
   </si>
   <si>
@@ -1154,9 +1095,6 @@
     <t>0.364</t>
   </si>
   <si>
-    <t>0.300</t>
-  </si>
-  <si>
     <t>0.273</t>
   </si>
   <si>
@@ -1178,9 +1116,6 @@
     <t>0.417</t>
   </si>
   <si>
-    <t>0.400</t>
-  </si>
-  <si>
     <t>0.083</t>
   </si>
   <si>
@@ -1190,18 +1125,9 @@
     <t>0.636</t>
   </si>
   <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.900</t>
-  </si>
-  <si>
     <t>0.615</t>
   </si>
   <si>
-    <t>0.600</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -1214,12 +1140,6 @@
     <t>0.778</t>
   </si>
   <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.100</t>
-  </si>
-  <si>
     <t>-----</t>
   </si>
   <si>
@@ -1245,12 +1165,96 @@
   </si>
   <si>
     <t>FCYBL 2019-2020 Regular Season Rankings</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>10-0-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>0.200</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>8-3-1</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>6-5-1</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>0.385</t>
+  </si>
+  <si>
+    <t>12-1-0</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>0.818</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>4-3-1</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>3-4-1</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>0.308</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1675,7 +1679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1697,7 +1701,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1718,7 +1722,7 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1729,7 +1733,7 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1740,18 +1744,18 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1793,7 +1797,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>9</v>
@@ -1802,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>11</v>
@@ -1819,16 +1823,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>11</v>
@@ -1845,16 +1849,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>11</v>
@@ -1871,16 +1875,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>11</v>
@@ -1897,22 +1901,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>11</v>
@@ -1923,22 +1927,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>11</v>
@@ -1949,19 +1953,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>11</v>
@@ -1975,19 +1979,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>11</v>
@@ -2001,19 +2005,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>11</v>
@@ -2027,19 +2031,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>11</v>
@@ -2053,19 +2057,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>11</v>
@@ -2079,16 +2083,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>11</v>
@@ -2142,16 +2146,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>11</v>
@@ -2168,16 +2172,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>11</v>
@@ -2194,22 +2198,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>337</v>
+        <v>11</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>11</v>
@@ -2220,22 +2224,22 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>398</v>
+        <v>319</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>11</v>
@@ -2246,19 +2250,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>11</v>
@@ -2272,19 +2276,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>11</v>
@@ -2298,25 +2302,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H32" s="23" t="s">
         <v>11</v>
@@ -2324,25 +2328,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="H33" s="23" t="s">
         <v>11</v>
@@ -2350,19 +2354,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>11</v>
@@ -2376,19 +2380,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>11</v>
@@ -2402,19 +2406,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>11</v>
@@ -2428,19 +2432,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>11</v>
@@ -2454,25 +2458,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>339</v>
+        <v>11</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>11</v>
@@ -2480,25 +2484,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>294</v>
+        <v>383</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>11</v>
@@ -2543,16 +2547,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>11</v>
@@ -2569,19 +2573,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>11</v>
@@ -2595,19 +2599,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>11</v>
@@ -2621,19 +2625,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>11</v>
@@ -2647,22 +2651,22 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D47" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="F47" s="23" t="s">
         <v>367</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>392</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>11</v>
@@ -2673,22 +2677,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>11</v>
@@ -2699,16 +2703,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>11</v>
@@ -2725,19 +2729,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>11</v>
@@ -2751,19 +2755,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>11</v>
@@ -2777,19 +2781,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>11</v>
@@ -2803,16 +2807,16 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>11</v>
@@ -2829,16 +2833,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>11</v>
@@ -2855,7 +2859,7 @@
     </row>
     <row r="56" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2892,22 +2896,22 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B58" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>337</v>
+        <v>11</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>11</v>
@@ -2918,22 +2922,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B59" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>398</v>
+        <v>319</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>11</v>
@@ -2944,19 +2948,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>11</v>
@@ -2970,16 +2974,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>11</v>
@@ -2996,19 +3000,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="F62" s="23" t="s">
         <v>11</v>
@@ -3022,19 +3026,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>11</v>
@@ -3048,16 +3052,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>11</v>
@@ -3074,16 +3078,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>11</v>
@@ -3100,16 +3104,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>11</v>
@@ -3126,16 +3130,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>11</v>
@@ -3152,19 +3156,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F68" s="23" t="s">
         <v>11</v>
@@ -3178,19 +3182,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>11</v>
@@ -3204,22 +3208,22 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>11</v>
@@ -3230,22 +3234,22 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>11</v>
+        <v>385</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>11</v>
@@ -3256,16 +3260,16 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>11</v>
@@ -3282,7 +3286,7 @@
     </row>
     <row r="74" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -3319,16 +3323,16 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B76" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="23" t="s">
-        <v>70</v>
-      </c>
       <c r="D76" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>11</v>
@@ -3345,16 +3349,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>11</v>
@@ -3371,16 +3375,16 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>11</v>
@@ -3397,16 +3401,16 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>11</v>
@@ -3423,16 +3427,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>11</v>
@@ -3449,19 +3453,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F81" s="23" t="s">
         <v>11</v>
@@ -3475,19 +3479,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F82" s="23" t="s">
         <v>11</v>
@@ -3501,16 +3505,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>11</v>
@@ -3527,19 +3531,19 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F84" s="23" t="s">
         <v>11</v>
@@ -3553,19 +3557,19 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F85" s="23" t="s">
         <v>11</v>
@@ -3579,16 +3583,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>11</v>
@@ -3605,16 +3609,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>11</v>
@@ -3631,16 +3635,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>11</v>
@@ -3657,7 +3661,7 @@
     </row>
     <row r="90" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -3694,16 +3698,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>11</v>
@@ -3720,16 +3724,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>11</v>
@@ -3746,16 +3750,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>11</v>
@@ -3772,16 +3776,16 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>314</v>
+        <v>386</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>11</v>
@@ -3798,16 +3802,16 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>11</v>
@@ -3824,19 +3828,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B97" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F97" s="23" t="s">
         <v>11</v>
@@ -3850,19 +3854,19 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B98" s="22" t="s">
         <v>91</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F98" s="23" t="s">
         <v>11</v>
@@ -3876,19 +3880,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>11</v>
@@ -3902,16 +3906,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B100" s="22" t="s">
         <v>93</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="E100" s="23" t="s">
         <v>11</v>
@@ -3928,16 +3932,16 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>11</v>
@@ -3954,16 +3958,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E102" s="23" t="s">
         <v>11</v>
@@ -3980,16 +3984,16 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>11</v>
@@ -4006,16 +4010,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>11</v>
@@ -4032,16 +4036,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>11</v>
@@ -4058,7 +4062,7 @@
     </row>
     <row r="107" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -4095,16 +4099,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>11</v>
@@ -4121,16 +4125,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>11</v>
@@ -4147,16 +4151,16 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>11</v>
@@ -4173,19 +4177,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>103</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F112" s="23" t="s">
         <v>11</v>
@@ -4199,19 +4203,19 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F113" s="23" t="s">
         <v>11</v>
@@ -4225,16 +4229,16 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>11</v>
@@ -4251,19 +4255,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F115" s="23" t="s">
         <v>11</v>
@@ -4277,19 +4281,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F116" s="23" t="s">
         <v>11</v>
@@ -4303,16 +4307,16 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>11</v>
@@ -4329,16 +4333,16 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>11</v>
@@ -4355,16 +4359,16 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>11</v>
@@ -4381,19 +4385,19 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="F120" s="16" t="s">
         <v>11</v>
@@ -4407,19 +4411,19 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="F121" s="16" t="s">
         <v>11</v>
@@ -4433,7 +4437,7 @@
     </row>
     <row r="123" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -4470,19 +4474,19 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B125" s="22" t="s">
         <v>114</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E125" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F125" s="23" t="s">
         <v>11</v>
@@ -4496,19 +4500,19 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E126" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F126" s="23" t="s">
         <v>11</v>
@@ -4522,16 +4526,16 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B127" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>388</v>
+        <v>323</v>
       </c>
       <c r="E127" s="23" t="s">
         <v>11</v>
@@ -4548,16 +4552,16 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="E128" s="23" t="s">
         <v>11</v>
@@ -4574,16 +4578,16 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="E129" s="23" t="s">
         <v>11</v>
@@ -4600,19 +4604,19 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="F130" s="23" t="s">
         <v>11</v>
@@ -4626,19 +4630,19 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="F131" s="23" t="s">
         <v>11</v>
@@ -4652,19 +4656,19 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F132" s="23" t="s">
         <v>11</v>
@@ -4678,19 +4682,19 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F133" s="23" t="s">
         <v>11</v>
@@ -4704,16 +4708,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="21" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>316</v>
+        <v>394</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="E134" s="23" t="s">
         <v>11</v>
@@ -4730,16 +4734,16 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="21" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E135" s="23" t="s">
         <v>11</v>
@@ -4756,16 +4760,16 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="E136" s="16" t="s">
         <v>11</v>
@@ -4782,16 +4786,16 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="E137" s="16" t="s">
         <v>11</v>
@@ -4808,16 +4812,16 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E138" s="16" t="s">
         <v>11</v>
@@ -4834,7 +4838,7 @@
     </row>
     <row r="140" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -4871,16 +4875,16 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E142" s="23" t="s">
         <v>11</v>
@@ -4897,16 +4901,16 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E143" s="23" t="s">
         <v>11</v>
@@ -4923,19 +4927,19 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E144" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F144" s="23" t="s">
         <v>11</v>
@@ -4949,19 +4953,19 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="E145" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F145" s="23" t="s">
         <v>11</v>
@@ -4975,16 +4979,16 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="E146" s="23" t="s">
         <v>11</v>
@@ -5001,16 +5005,16 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E147" s="23" t="s">
         <v>11</v>
@@ -5027,19 +5031,19 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E148" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F148" s="23" t="s">
         <v>11</v>
@@ -5053,19 +5057,19 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E149" s="23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="F149" s="23" t="s">
         <v>11</v>
@@ -5079,19 +5083,19 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F150" s="16" t="s">
         <v>11</v>
@@ -5105,16 +5109,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E151" s="16" t="s">
         <v>11</v>
@@ -5131,16 +5135,16 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B152" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C152" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C152" s="16" t="s">
-        <v>140</v>
-      </c>
       <c r="D152" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E152" s="16" t="s">
         <v>11</v>
@@ -5157,7 +5161,7 @@
     </row>
     <row r="154" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -5194,16 +5198,16 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>313</v>
+        <v>396</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="E156" s="23" t="s">
         <v>11</v>
@@ -5220,16 +5224,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B157" s="22" t="s">
         <v>143</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="E157" s="23" t="s">
         <v>11</v>
@@ -5246,16 +5250,16 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="E158" s="23" t="s">
         <v>11</v>
@@ -5272,16 +5276,16 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>11</v>
@@ -5298,16 +5302,16 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E160" s="23" t="s">
         <v>11</v>
@@ -5324,16 +5328,16 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="E161" s="23" t="s">
         <v>11</v>
@@ -5350,16 +5354,16 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="E162" s="23" t="s">
         <v>11</v>
@@ -5376,19 +5380,19 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="E163" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F163" s="23" t="s">
         <v>11</v>
@@ -5402,19 +5406,19 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="E164" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F164" s="23" t="s">
         <v>11</v>
@@ -5428,16 +5432,16 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="21" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E165" s="23" t="s">
         <v>11</v>
@@ -5454,22 +5458,22 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="21" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="E166" s="23" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="F166" s="23" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="G166" s="23" t="s">
         <v>11</v>
@@ -5480,22 +5484,22 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="21" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="E167" s="23" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="F167" s="23" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="G167" s="23" t="s">
         <v>11</v>
@@ -5506,16 +5510,16 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="21" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E168" s="23" t="s">
         <v>11</v>
@@ -5532,16 +5536,16 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="E169" s="16" t="s">
         <v>11</v>
@@ -5558,16 +5562,16 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="E170" s="16" t="s">
         <v>11</v>
@@ -5584,16 +5588,16 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E171" s="16" t="s">
         <v>11</v>
@@ -5610,16 +5614,16 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>11</v>
@@ -5636,7 +5640,7 @@
     </row>
     <row r="174" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -5673,16 +5677,16 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>11</v>
@@ -5699,16 +5703,16 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>11</v>
@@ -5725,22 +5729,22 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B178" s="22" t="s">
         <v>159</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E178" s="23" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F178" s="23" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="G178" s="23" t="s">
         <v>11</v>
@@ -5751,22 +5755,22 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E179" s="23" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="F179" s="23" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="G179" s="23" t="s">
         <v>11</v>
@@ -5777,22 +5781,22 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B180" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="E180" s="23" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="F180" s="23" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="G180" s="23" t="s">
         <v>11</v>
@@ -5803,16 +5807,16 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="E181" s="23" t="s">
         <v>11</v>
@@ -5829,16 +5833,16 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="E182" s="23" t="s">
         <v>11</v>
@@ -5855,16 +5859,16 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B183" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C183" s="23" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>11</v>
@@ -5881,19 +5885,19 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="E184" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F184" s="23" t="s">
         <v>11</v>
@@ -5907,19 +5911,19 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="21" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E185" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F185" s="23" t="s">
         <v>11</v>
@@ -5933,19 +5937,19 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="21" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B186" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="E186" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F186" s="23" t="s">
         <v>11</v>
@@ -5959,19 +5963,19 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E187" s="23" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F187" s="23" t="s">
         <v>11</v>
@@ -5985,19 +5989,19 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F188" s="16" t="s">
         <v>11</v>
@@ -6011,19 +6015,19 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F189" s="16" t="s">
         <v>11</v>
@@ -6037,19 +6041,19 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F190" s="16" t="s">
         <v>11</v>
@@ -6063,7 +6067,7 @@
     </row>
     <row r="192" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
@@ -6100,16 +6104,16 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B194" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>313</v>
+        <v>396</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="E194" s="23" t="s">
         <v>11</v>
@@ -6126,16 +6130,16 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B195" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C195" s="23" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="E195" s="23" t="s">
         <v>11</v>
@@ -6152,16 +6156,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C196" s="23" t="s">
-        <v>309</v>
+        <v>400</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>11</v>
@@ -6178,16 +6182,16 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B197" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>11</v>
@@ -6204,19 +6208,19 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B198" s="22" t="s">
         <v>175</v>
       </c>
       <c r="C198" s="23" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="F198" s="23" t="s">
         <v>11</v>
@@ -6230,19 +6234,19 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C199" s="23" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E199" s="23" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="F199" s="23" t="s">
         <v>11</v>
@@ -6256,19 +6260,19 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C200" s="23" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="E200" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F200" s="23" t="s">
         <v>11</v>
@@ -6282,16 +6286,16 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C201" s="23" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>11</v>
@@ -6308,16 +6312,16 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E202" s="16" t="s">
         <v>11</v>
@@ -6334,7 +6338,7 @@
     </row>
     <row r="204" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
@@ -6371,22 +6375,22 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B206" s="22" t="s">
         <v>182</v>
       </c>
       <c r="C206" s="23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E206" s="23" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="F206" s="23" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
       <c r="G206" s="23" t="s">
         <v>11</v>
@@ -6397,22 +6401,22 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C207" s="23" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E207" s="23" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="F207" s="23" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="G207" s="23" t="s">
         <v>11</v>
@@ -6423,16 +6427,16 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C208" s="23" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="E208" s="23" t="s">
         <v>11</v>
@@ -6449,16 +6453,16 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C209" s="23" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="E209" s="23" t="s">
         <v>11</v>
@@ -6475,16 +6479,16 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B210" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C210" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D210" s="23" t="s">
         <v>341</v>
-      </c>
-      <c r="B210" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C210" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D210" s="23" t="s">
-        <v>342</v>
       </c>
       <c r="E210" s="23" t="s">
         <v>11</v>
@@ -6501,19 +6505,19 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B211" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C211" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="D211" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B211" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C211" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="D211" s="23" t="s">
-        <v>359</v>
-      </c>
       <c r="E211" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F211" s="23" t="s">
         <v>11</v>
@@ -6527,19 +6531,19 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B212" s="22" t="s">
         <v>188</v>
       </c>
       <c r="C212" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E212" s="23" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="F212" s="23" t="s">
         <v>11</v>
@@ -6553,19 +6557,19 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B213" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C213" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E213" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F213" s="23" t="s">
         <v>11</v>
@@ -6579,19 +6583,19 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="14" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F214" s="16" t="s">
         <v>11</v>
@@ -6605,19 +6609,19 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F215" s="16" t="s">
         <v>11</v>
@@ -6631,7 +6635,7 @@
     </row>
     <row r="217" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
@@ -6668,22 +6672,22 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B219" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C219" s="23" t="s">
-        <v>10</v>
+        <v>376</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E219" s="23" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="F219" s="23" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="G219" s="23" t="s">
         <v>11</v>
@@ -6694,22 +6698,22 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C220" s="23" t="s">
-        <v>10</v>
+        <v>376</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E220" s="23" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="F220" s="23" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="G220" s="23" t="s">
         <v>11</v>
@@ -6720,16 +6724,16 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B221" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C221" s="23" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="E221" s="23" t="s">
         <v>11</v>
@@ -6746,16 +6750,16 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B222" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C222" s="23" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>396</v>
+        <v>323</v>
       </c>
       <c r="E222" s="23" t="s">
         <v>11</v>
@@ -6772,16 +6776,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B223" s="22" t="s">
         <v>196</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>296</v>
+        <v>402</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="E223" s="23" t="s">
         <v>11</v>
@@ -6798,19 +6802,19 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B224" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C224" s="23" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E224" s="23" t="s">
-        <v>338</v>
+        <v>11</v>
       </c>
       <c r="F224" s="23" t="s">
         <v>11</v>
@@ -6824,19 +6828,19 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B225" s="22" t="s">
         <v>198</v>
       </c>
       <c r="C225" s="23" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E225" s="23" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="F225" s="23" t="s">
         <v>11</v>
@@ -6850,19 +6854,19 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B226" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C226" s="23" t="s">
-        <v>286</v>
+        <v>404</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>342</v>
+        <v>405</v>
       </c>
       <c r="E226" s="23" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="F226" s="23" t="s">
         <v>11</v>
@@ -6876,19 +6880,19 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="E227" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F227" s="23" t="s">
         <v>11</v>
@@ -6902,19 +6906,19 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="21" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B228" s="22" t="s">
         <v>201</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E228" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F228" s="23" t="s">
         <v>11</v>
@@ -6928,16 +6932,16 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="21" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B229" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="E229" s="23" t="s">
         <v>11</v>
@@ -6954,19 +6958,19 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D230" s="16" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="F230" s="16" t="s">
         <v>11</v>
@@ -6980,19 +6984,19 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="D231" s="16" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="F231" s="16" t="s">
         <v>11</v>
@@ -7006,16 +7010,16 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B232" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C232" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C232" s="16" t="s">
-        <v>206</v>
-      </c>
       <c r="D232" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E232" s="16" t="s">
         <v>11</v>
@@ -7032,7 +7036,7 @@
     </row>
     <row r="234" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
@@ -7069,16 +7073,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B236" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C236" s="23" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E236" s="23" t="s">
         <v>11</v>
@@ -7095,19 +7099,19 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B237" s="22" t="s">
         <v>209</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="E237" s="23" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="F237" s="23" t="s">
         <v>11</v>
@@ -7121,22 +7125,22 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B238" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C238" s="23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D238" s="23" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="E238" s="23" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="F238" s="23" t="s">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="G238" s="23" t="s">
         <v>11</v>
@@ -7147,22 +7151,22 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B239" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C239" s="23" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="E239" s="23" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="F239" s="23" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="G239" s="23" t="s">
         <v>11</v>
@@ -7173,22 +7177,22 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B240" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C240" s="23" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="E240" s="23" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="F240" s="23" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
       <c r="G240" s="23" t="s">
         <v>11</v>
@@ -7199,22 +7203,22 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B241" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C241" s="23" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E241" s="23" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="F241" s="23" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="G241" s="23" t="s">
         <v>11</v>
@@ -7225,16 +7229,16 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B242" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C242" s="23" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D242" s="23" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E242" s="23" t="s">
         <v>11</v>
@@ -7251,16 +7255,16 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B243" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C243" s="23" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="D243" s="23" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E243" s="23" t="s">
         <v>11</v>
@@ -7277,16 +7281,16 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="14" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="D244" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E244" s="16" t="s">
         <v>11</v>
@@ -7303,7 +7307,7 @@
     </row>
     <row r="246" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -7340,16 +7344,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B248" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E248" s="23" t="s">
         <v>11</v>
@@ -7366,16 +7370,16 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B249" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C249" s="23" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="E249" s="23" t="s">
         <v>11</v>
@@ -7392,16 +7396,16 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B250" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C250" s="23" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="E250" s="23" t="s">
         <v>11</v>
@@ -7418,19 +7422,19 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B251" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C251" s="23" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="E251" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F251" s="23" t="s">
         <v>11</v>
@@ -7444,19 +7448,19 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C252" s="23" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="E252" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F252" s="23" t="s">
         <v>11</v>
@@ -7470,22 +7474,22 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B253" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C253" s="23" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E253" s="23" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="F253" s="23" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="G253" s="23" t="s">
         <v>11</v>
@@ -7496,22 +7500,22 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C254" s="23" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E254" s="23" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="F254" s="23" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="G254" s="23" t="s">
         <v>11</v>
@@ -7522,16 +7526,16 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C255" s="23" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="E255" s="23" t="s">
         <v>11</v>
@@ -7548,16 +7552,16 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C256" s="23" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="E256" s="23" t="s">
         <v>11</v>
@@ -7574,19 +7578,19 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="21" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B257" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C257" s="23" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E257" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F257" s="23" t="s">
         <v>11</v>
@@ -7600,19 +7604,19 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="21" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B258" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C258" s="23" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E258" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F258" s="23" t="s">
         <v>11</v>
@@ -7626,16 +7630,16 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="21" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C259" s="23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E259" s="23" t="s">
         <v>11</v>
@@ -7652,19 +7656,19 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="14" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F260" s="16" t="s">
         <v>11</v>
@@ -7678,19 +7682,19 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="14" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F261" s="16" t="s">
         <v>11</v>
@@ -7704,22 +7708,22 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="14" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="F262" s="16" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="G262" s="16" t="s">
         <v>11</v>
@@ -7730,22 +7734,22 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="14" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D263" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="F263" s="16" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="G263" s="16" t="s">
         <v>11</v>
@@ -7756,7 +7760,7 @@
     </row>
     <row r="265" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
@@ -7793,16 +7797,16 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C267" s="23" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D267" s="23" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E267" s="23" t="s">
         <v>11</v>
@@ -7819,19 +7823,19 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B268" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C268" s="23" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E268" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F268" s="23" t="s">
         <v>11</v>
@@ -7845,19 +7849,19 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B269" s="22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C269" s="23" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D269" s="23" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="E269" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F269" s="23" t="s">
         <v>11</v>
@@ -7871,16 +7875,16 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B270" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C270" s="23" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E270" s="23" t="s">
         <v>11</v>
@@ -7897,22 +7901,22 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B271" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C271" s="23" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D271" s="23" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="E271" s="23" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="F271" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="G271" s="23" t="s">
         <v>11</v>
@@ -7923,22 +7927,22 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B272" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C272" s="23" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="E272" s="23" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="F272" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="G272" s="23" t="s">
         <v>11</v>
@@ -7949,22 +7953,22 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B273" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C273" s="23" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D273" s="23" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="E273" s="23" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F273" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="G273" s="23" t="s">
         <v>11</v>
@@ -7975,22 +7979,22 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C274" s="23" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E274" s="23" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="F274" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="G274" s="23" t="s">
         <v>11</v>
@@ -8001,16 +8005,16 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B275" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C275" s="23" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D275" s="23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E275" s="23" t="s">
         <v>11</v>
@@ -8027,19 +8031,19 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="21" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B276" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C276" s="23" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="E276" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F276" s="23" t="s">
         <v>11</v>
@@ -8053,19 +8057,19 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="14" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F277" s="16" t="s">
         <v>11</v>
@@ -8079,16 +8083,16 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="14" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E278" s="16" t="s">
         <v>11</v>
@@ -8105,16 +8109,16 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="14" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D279" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E279" s="16" t="s">
         <v>11</v>
@@ -8131,7 +8135,7 @@
     </row>
     <row r="281" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
@@ -8168,16 +8172,16 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B283" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C283" s="23" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E283" s="23" t="s">
         <v>11</v>
@@ -8194,16 +8198,16 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D284" s="23" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E284" s="23" t="s">
         <v>11</v>
@@ -8220,16 +8224,16 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C285" s="23" t="s">
-        <v>314</v>
+        <v>386</v>
       </c>
       <c r="D285" s="23" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="E285" s="23" t="s">
         <v>11</v>
@@ -8246,16 +8250,16 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B286" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C286" s="23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="E286" s="23" t="s">
         <v>11</v>
@@ -8272,16 +8276,16 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B287" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C287" s="23" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D287" s="23" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="E287" s="23" t="s">
         <v>11</v>
@@ -8298,16 +8302,16 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C288" s="23" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="E288" s="23" t="s">
         <v>11</v>
@@ -8324,16 +8328,16 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C289" s="23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E289" s="23" t="s">
         <v>11</v>
@@ -8350,19 +8354,19 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B290" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C290" s="23" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D290" s="23" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="E290" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F290" s="23" t="s">
         <v>11</v>
@@ -8376,19 +8380,19 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D291" s="16" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F291" s="16" t="s">
         <v>11</v>
@@ -8402,16 +8406,16 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="14" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E292" s="16" t="s">
         <v>11</v>
@@ -8428,16 +8432,16 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="14" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E293" s="16" t="s">
         <v>11</v>
@@ -8454,7 +8458,7 @@
     </row>
     <row r="295" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="9"/>
@@ -8491,16 +8495,16 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B297" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C297" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D297" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E297" s="23" t="s">
         <v>11</v>
@@ -8517,16 +8521,16 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B298" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D298" s="23" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E298" s="23" t="s">
         <v>11</v>
@@ -8543,16 +8547,16 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B299" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C299" s="23" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D299" s="23" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E299" s="23" t="s">
         <v>11</v>
@@ -8569,16 +8573,16 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B300" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C300" s="23" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D300" s="23" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="E300" s="23" t="s">
         <v>11</v>
@@ -8595,16 +8599,16 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B301" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C301" s="23" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D301" s="23" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E301" s="23" t="s">
         <v>11</v>
@@ -8621,19 +8625,19 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B302" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C302" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D302" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="B302" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C302" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D302" s="23" t="s">
-        <v>375</v>
-      </c>
       <c r="E302" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F302" s="23" t="s">
         <v>11</v>
@@ -8647,19 +8651,19 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B303" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C303" s="23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D303" s="23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E303" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F303" s="23" t="s">
         <v>11</v>
@@ -8673,16 +8677,16 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B304" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C304" s="23" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E304" s="23" t="s">
         <v>11</v>
@@ -8699,16 +8703,16 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="14" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D305" s="16" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="E305" s="16" t="s">
         <v>11</v>
@@ -8725,7 +8729,7 @@
     </row>
     <row r="307" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
@@ -8762,19 +8766,19 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="21" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B309" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C309" s="23" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D309" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E309" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F309" s="23" t="s">
         <v>11</v>
@@ -8788,19 +8792,19 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="21" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B310" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C310" s="23" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D310" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E310" s="23" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F310" s="23" t="s">
         <v>11</v>
@@ -8814,19 +8818,19 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="21" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B311" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C311" s="23" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="E311" s="23" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="F311" s="23" t="s">
         <v>11</v>
@@ -8840,19 +8844,19 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="21" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B312" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C312" s="23" t="s">
-        <v>314</v>
+        <v>386</v>
       </c>
       <c r="D312" s="23" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="E312" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F312" s="23" t="s">
         <v>11</v>
@@ -8866,19 +8870,19 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="21" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B313" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>309</v>
+        <v>400</v>
       </c>
       <c r="D313" s="23" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="E313" s="23" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F313" s="23" t="s">
         <v>11</v>
@@ -8892,19 +8896,19 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B314" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>309</v>
+        <v>400</v>
       </c>
       <c r="D314" s="23" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="E314" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F314" s="23" t="s">
         <v>11</v>
@@ -8918,16 +8922,16 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="21" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B315" s="22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C315" s="23" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D315" s="23" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="E315" s="23" t="s">
         <v>11</v>
@@ -8944,16 +8948,16 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B316" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C316" s="23" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D316" s="23" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E316" s="23" t="s">
         <v>11</v>
@@ -8970,16 +8974,16 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="21" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B317" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C317" s="23" t="s">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="D317" s="23" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="E317" s="23" t="s">
         <v>11</v>
@@ -8996,19 +9000,19 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="21" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B318" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C318" s="23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D318" s="23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E318" s="23" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="F318" s="23" t="s">
         <v>11</v>
@@ -9022,19 +9026,19 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="21" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B319" s="22" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C319" s="23" t="s">
-        <v>321</v>
+        <v>406</v>
       </c>
       <c r="D319" s="23" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="E319" s="23" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="F319" s="23" t="s">
         <v>11</v>
@@ -9048,16 +9052,16 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="14" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="E320" s="16" t="s">
         <v>11</v>
@@ -9074,16 +9078,16 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="14" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="D321" s="16" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="E321" s="16" t="s">
         <v>11</v>
@@ -9100,16 +9104,16 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="14" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="D322" s="16" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="E322" s="16" t="s">
         <v>11</v>

--- a/docs/FCYBL Rankings.xlsx
+++ b/docs/FCYBL Rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\fcybl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEA6094-C532-4075-B85C-27F0B7F5D1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362E74A5-ABAC-4121-B192-58870CE8258C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="417">
   <si>
     <t>B5-D1</t>
   </si>
@@ -57,9 +57,6 @@
     <t>BURKE - SMITH</t>
   </si>
   <si>
-    <t>8-0-0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>MCLEAN - CICALE</t>
   </si>
   <si>
-    <t>11-0-0</t>
-  </si>
-  <si>
     <t>FORT BELVOIR - TAYLOR JR</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>ANNANDALE - HWANG</t>
   </si>
   <si>
-    <t>0-11-0</t>
-  </si>
-  <si>
     <t>B6-D3</t>
   </si>
   <si>
@@ -870,27 +861,12 @@
     <t>Wins are worth 1 point, ties worth 0.5 points, and losses 0 points.</t>
   </si>
   <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
     <t>3-5-0</t>
   </si>
   <si>
     <t>2-6-0</t>
   </si>
   <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
     <t>8-1-0</t>
   </si>
   <si>
@@ -903,18 +879,12 @@
     <t>2-7-0</t>
   </si>
   <si>
-    <t>10-1-0</t>
-  </si>
-  <si>
     <t>10-2-0</t>
   </si>
   <si>
     <t>8-2-0</t>
   </si>
   <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
     <t>5-4-0</t>
   </si>
   <si>
@@ -939,9 +909,6 @@
     <t>7-5-0</t>
   </si>
   <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
     <t>6-6-0</t>
   </si>
   <si>
@@ -963,9 +930,6 @@
     <t>11-2-0</t>
   </si>
   <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
     <t>4-8-0</t>
   </si>
   <si>
@@ -990,9 +954,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>0.875</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -1002,9 +963,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>0.625</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -1041,9 +999,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>0.143</t>
-  </si>
-  <si>
     <t>0.889</t>
   </si>
   <si>
@@ -1077,15 +1032,9 @@
     <t>0.167</t>
   </si>
   <si>
-    <t>0.909</t>
-  </si>
-  <si>
     <t>0.800</t>
   </si>
   <si>
-    <t>0.727</t>
-  </si>
-  <si>
     <t>0.556</t>
   </si>
   <si>
@@ -1107,9 +1056,6 @@
     <t>0.583</t>
   </si>
   <si>
-    <t>0.545</t>
-  </si>
-  <si>
     <t>0.917</t>
   </si>
   <si>
@@ -1122,9 +1068,6 @@
     <t>0.846</t>
   </si>
   <si>
-    <t>0.636</t>
-  </si>
-  <si>
     <t>0.615</t>
   </si>
   <si>
@@ -1161,9 +1104,6 @@
     <t>6-3-0</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>FCYBL 2019-2020 Regular Season Rankings</t>
   </si>
   <si>
@@ -1182,9 +1122,6 @@
     <t>0.200</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>10-3-0</t>
   </si>
   <si>
@@ -1233,22 +1170,112 @@
     <t>0.692</t>
   </si>
   <si>
-    <t>4-3-1</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>3-4-1</t>
-  </si>
-  <si>
-    <t>0.438</t>
-  </si>
-  <si>
     <t>4-9-0</t>
   </si>
   <si>
     <t>0.308</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>0.900</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>0.700</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>0.600</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>0.857</t>
+  </si>
+  <si>
+    <t>0-13-0</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>0.400</t>
+  </si>
+  <si>
+    <t>5-3-1</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>4-4-1</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>0-9-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>13-0-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>0.643</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1728,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1722,7 +1749,7 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1733,7 +1760,7 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1744,18 +1771,18 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1797,319 +1824,319 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>371</v>
+        <v>10</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>318</v>
+        <v>10</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>368</v>
+        <v>10</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>319</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2146,371 +2173,371 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>288</v>
+        <v>385</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>289</v>
+        <v>391</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>326</v>
+        <v>10</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>342</v>
+        <v>10</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>290</v>
+        <v>392</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>290</v>
+        <v>392</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>290</v>
+        <v>392</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>319</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2547,319 +2574,319 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>288</v>
+        <v>385</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>282</v>
+        <v>358</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>367</v>
+        <v>10</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>371</v>
+        <v>10</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>290</v>
+        <v>392</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2896,397 +2923,397 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="E62" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D62" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>11</v>
-      </c>
       <c r="F62" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>296</v>
+        <v>391</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>297</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B67" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>314</v>
+        <v>395</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>371</v>
+        <v>10</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>367</v>
+        <v>10</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>371</v>
+        <v>10</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>385</v>
+        <v>10</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -3323,345 +3350,345 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B80" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>304</v>
+        <v>397</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -3698,371 +3725,371 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G97" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H101" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -4099,345 +4126,345 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H111" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C112" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E112" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D112" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E112" s="23" t="s">
-        <v>319</v>
-      </c>
       <c r="F112" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H112" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G113" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H113" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C114" s="23" t="s">
         <v>303</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G114" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H114" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G115" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H115" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="F116" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G116" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H116" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F117" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G117" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H117" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="E118" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G118" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H118" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -4474,371 +4501,371 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="E125" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F125" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G125" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H125" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="E126" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F126" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G126" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E127" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F127" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G127" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H127" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F128" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H128" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G129" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H129" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F130" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G130" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H130" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G131" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H131" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G132" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H132" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G133" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H133" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G134" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H134" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="21" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G135" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H135" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H136" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H138" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -4875,293 +4902,293 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="E142" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G142" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H142" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>311</v>
+        <v>401</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="E143" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G143" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H143" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="E144" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G144" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H144" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>307</v>
+        <v>379</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="E145" s="23" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F145" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G145" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H145" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="E146" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F146" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G146" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H146" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="E147" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F147" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G147" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H147" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="E148" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F148" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G148" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H148" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="E149" s="23" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="F149" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G149" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H149" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G150" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H150" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H151" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>139</v>
+        <v>403</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G152" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -5198,449 +5225,449 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="E156" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F156" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G156" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H156" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E157" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F157" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G157" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H157" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="E158" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F158" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G158" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H158" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E159" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F159" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G159" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H159" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E160" s="23" t="s">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="F160" s="23" t="s">
-        <v>11</v>
+        <v>314</v>
       </c>
       <c r="G160" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H160" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="F161" s="23" t="s">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="G161" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H161" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="E162" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G162" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H162" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="E163" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F163" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G163" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H163" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="E164" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F164" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G164" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H164" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E165" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F165" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G165" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H165" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="21" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E166" s="23" t="s">
-        <v>371</v>
+        <v>10</v>
       </c>
       <c r="F166" s="23" t="s">
-        <v>332</v>
+        <v>10</v>
       </c>
       <c r="G166" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H166" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="21" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="E167" s="23" t="s">
-        <v>371</v>
+        <v>10</v>
       </c>
       <c r="F167" s="23" t="s">
-        <v>344</v>
+        <v>10</v>
       </c>
       <c r="G167" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H167" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="21" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="E168" s="23" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F168" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G168" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H168" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H169" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F170" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G170" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H170" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C171" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B171" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>310</v>
-      </c>
       <c r="D171" s="16" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H171" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>139</v>
+        <v>403</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F172" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H172" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -5677,397 +5704,397 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="E176" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F176" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G176" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H176" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E177" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F177" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G177" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H177" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="C178" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E178" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D178" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E178" s="23" t="s">
-        <v>327</v>
-      </c>
       <c r="F178" s="23" t="s">
-        <v>326</v>
+        <v>10</v>
       </c>
       <c r="G178" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H178" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="E179" s="23" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F179" s="23" t="s">
-        <v>337</v>
+        <v>10</v>
       </c>
       <c r="G179" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H179" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="C180" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="D180" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E180" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D180" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E180" s="23" t="s">
-        <v>327</v>
-      </c>
       <c r="F180" s="23" t="s">
-        <v>368</v>
+        <v>10</v>
       </c>
       <c r="G180" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H180" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="E181" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F181" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G181" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H181" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E182" s="23" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G182" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H182" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B183" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C183" s="23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E183" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G183" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H183" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C184" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="D184" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="E184" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="D184" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="E184" s="23" t="s">
-        <v>319</v>
-      </c>
       <c r="F184" s="23" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="G184" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H184" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C185" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="D185" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="E185" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="D185" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="E185" s="23" t="s">
-        <v>333</v>
-      </c>
       <c r="F185" s="23" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="G185" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H185" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="21" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B186" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>309</v>
+        <v>381</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="E186" s="23" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F186" s="23" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="G186" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H186" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="E187" s="23" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="F187" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G187" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H187" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F188" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G188" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F189" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H189" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F190" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G190" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H190" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
@@ -6104,241 +6131,241 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B194" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="E194" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F194" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G194" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H194" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B195" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C195" s="23" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E195" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F195" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G195" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H195" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C196" s="23" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="E196" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F196" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G196" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H196" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B197" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E197" s="23" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F197" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G197" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H197" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C198" s="23" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F198" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G198" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H198" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C199" s="23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>319</v>
       </c>
       <c r="F199" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G199" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H199" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C200" s="23" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E200" s="23" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F200" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G200" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H200" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C201" s="23" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="E201" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F201" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G201" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H201" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>139</v>
+        <v>403</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F202" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H202" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
@@ -6375,267 +6402,267 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C206" s="23" t="s">
-        <v>288</v>
+        <v>385</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="E206" s="23" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F206" s="23" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="G206" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H206" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C207" s="23" t="s">
-        <v>288</v>
+        <v>385</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="E207" s="23" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F207" s="23" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="G207" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H207" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C208" s="23" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="E208" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F208" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G208" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H208" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C209" s="23" t="s">
-        <v>296</v>
+        <v>391</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="E209" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F209" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G209" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H209" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B210" s="22" t="s">
         <v>185</v>
       </c>
       <c r="C210" s="23" t="s">
-        <v>289</v>
+        <v>405</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>341</v>
+        <v>406</v>
       </c>
       <c r="E210" s="23" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F210" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G210" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H210" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C211" s="23" t="s">
-        <v>290</v>
+        <v>405</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="E211" s="23" t="s">
         <v>319</v>
       </c>
       <c r="F211" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G211" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H211" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B212" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C212" s="23" t="s">
-        <v>290</v>
+        <v>392</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="E212" s="23" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F212" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G212" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H212" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B213" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C213" s="23" t="s">
-        <v>290</v>
+        <v>392</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="E213" s="23" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="F213" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G213" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H213" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="14" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F214" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G214" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H214" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F215" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G215" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H215" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
@@ -6672,371 +6699,371 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B219" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C219" s="23" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E219" s="23" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F219" s="23" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G219" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H219" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C220" s="23" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E220" s="23" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F220" s="23" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="G220" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H220" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B221" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C221" s="23" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="E221" s="23" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F221" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G221" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H221" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B222" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C222" s="23" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="E222" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F222" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G222" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H222" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B223" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E223" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F223" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G223" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H223" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B224" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C224" s="23" t="s">
-        <v>284</v>
+        <v>409</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E224" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F224" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G224" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H224" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B225" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C225" s="23" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="E225" s="23" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="F225" s="23" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="G225" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H225" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B226" s="22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C226" s="23" t="s">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>405</v>
+        <v>326</v>
       </c>
       <c r="E226" s="23" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="F226" s="23" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="G226" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H226" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E227" s="23" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F227" s="23" t="s">
-        <v>11</v>
+        <v>410</v>
       </c>
       <c r="G227" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H227" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B228" s="22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E228" s="23" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="F228" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G228" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H228" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="21" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B229" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E229" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F229" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G229" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H229" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D230" s="16" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F230" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G230" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H230" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D231" s="16" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F231" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G231" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H231" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>205</v>
+        <v>411</v>
       </c>
       <c r="D232" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F232" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G232" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H232" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
@@ -7073,241 +7100,241 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B236" s="22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C236" s="23" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="E236" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F236" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G236" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H236" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B237" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="E237" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F237" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G237" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H237" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B238" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C238" s="23" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="D238" s="23" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="E238" s="23" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="F238" s="23" t="s">
-        <v>324</v>
+        <v>10</v>
       </c>
       <c r="G238" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H238" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B239" s="22" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C239" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E239" s="23" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="F239" s="23" t="s">
-        <v>340</v>
+        <v>10</v>
       </c>
       <c r="G239" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H239" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B240" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C240" s="23" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="E240" s="23" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="F240" s="23" t="s">
-        <v>331</v>
+        <v>10</v>
       </c>
       <c r="G240" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H240" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B241" s="22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C241" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="E241" s="23" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="F241" s="23" t="s">
-        <v>368</v>
+        <v>10</v>
       </c>
       <c r="G241" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H241" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B242" s="22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C242" s="23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D242" s="23" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E242" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F242" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G242" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H242" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B243" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C243" s="23" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="D243" s="23" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="E243" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F243" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G243" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H243" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="14" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>139</v>
+        <v>403</v>
       </c>
       <c r="D244" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F244" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G244" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H244" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -7344,423 +7371,423 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B248" s="22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="E248" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F248" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G248" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H248" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B249" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C249" s="23" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="E249" s="23" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F249" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G249" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H249" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B250" s="22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C250" s="23" t="s">
-        <v>398</v>
+        <v>284</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
       <c r="E250" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F250" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G250" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H250" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B251" s="22" t="s">
         <v>220</v>
       </c>
       <c r="C251" s="23" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="E251" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F251" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G251" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H251" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C252" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D252" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="E252" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="F252" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="E252" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="F252" s="23" t="s">
-        <v>11</v>
-      </c>
       <c r="G252" s="23" t="s">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="H252" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B253" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C253" s="23" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E253" s="23" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="F253" s="23" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="G253" s="23" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="H253" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C254" s="23" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E254" s="23" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="F254" s="23" t="s">
-        <v>342</v>
+        <v>10</v>
       </c>
       <c r="G254" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H254" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C255" s="23" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E255" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F255" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G255" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H255" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C256" s="23" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E256" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F256" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G256" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H256" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B257" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C257" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E257" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F257" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G257" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H257" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="21" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B258" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C258" s="23" t="s">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="E258" s="23" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F258" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G258" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H258" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="21" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C259" s="23" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E259" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F259" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G259" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H259" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="14" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F260" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G260" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H260" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="14" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F261" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G261" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H261" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="14" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F262" s="16" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G262" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H262" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="14" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D263" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F263" s="16" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G263" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H263" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
@@ -7797,345 +7824,345 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C267" s="23" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="D267" s="23" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="E267" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F267" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G267" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H267" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B268" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C268" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="D268" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E268" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D268" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E268" s="23" t="s">
-        <v>319</v>
-      </c>
       <c r="F268" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G268" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H268" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B269" s="22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C269" s="23" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="D269" s="23" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="E269" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F269" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G269" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H269" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B270" s="22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C270" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E270" s="23" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F270" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G270" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H270" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B271" s="22" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C271" s="23" t="s">
         <v>303</v>
       </c>
       <c r="D271" s="23" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E271" s="23" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="F271" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="G271" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H271" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B272" s="22" t="s">
         <v>238</v>
       </c>
       <c r="C272" s="23" t="s">
-        <v>303</v>
+        <v>397</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="E272" s="23" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="F272" s="23" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="G272" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H272" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B273" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C273" s="23" t="s">
-        <v>303</v>
+        <v>397</v>
       </c>
       <c r="D273" s="23" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="E273" s="23" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F273" s="23" t="s">
         <v>319</v>
       </c>
       <c r="G273" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H273" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C274" s="23" t="s">
-        <v>303</v>
+        <v>397</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="E274" s="23" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="F274" s="23" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="G274" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H274" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B275" s="22" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C275" s="23" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="D275" s="23" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="E275" s="23" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="F275" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G275" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H275" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B276" s="22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C276" s="23" t="s">
-        <v>309</v>
+        <v>381</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="E276" s="23" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="F276" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G276" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H276" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="14" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="F277" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G277" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H277" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="14" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F278" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G278" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H278" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="14" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D279" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F279" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G279" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H279" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
@@ -8172,293 +8199,293 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B283" s="22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C283" s="23" t="s">
-        <v>260</v>
+        <v>414</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E283" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F283" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G283" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H283" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D284" s="23" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E284" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F284" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G284" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H284" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C285" s="23" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="D285" s="23" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="E285" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F285" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G285" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H285" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B286" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C286" s="23" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="E286" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F286" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G286" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H286" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B287" s="22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C287" s="23" t="s">
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="D287" s="23" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="E287" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F287" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G287" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H287" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C288" s="23" t="s">
-        <v>303</v>
+        <v>397</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="E288" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F288" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G288" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H288" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C289" s="23" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="E289" s="23" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="F289" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G289" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H289" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B290" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C290" s="23" t="s">
-        <v>309</v>
+        <v>381</v>
       </c>
       <c r="D290" s="23" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="E290" s="23" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F290" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G290" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H290" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>309</v>
+        <v>381</v>
       </c>
       <c r="D291" s="16" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F291" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G291" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H291" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="14" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F292" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G292" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H292" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="14" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>139</v>
+        <v>403</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F293" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G293" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H293" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="9"/>
@@ -8495,241 +8522,241 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B297" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C297" s="23" t="s">
-        <v>260</v>
+        <v>414</v>
       </c>
       <c r="D297" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E297" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F297" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G297" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H297" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B298" s="22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D298" s="23" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E298" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F298" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G298" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H298" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B299" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C299" s="23" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="D299" s="23" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="E299" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F299" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G299" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H299" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B300" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C300" s="23" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D300" s="23" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E300" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F300" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G300" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H300" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B301" s="22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C301" s="23" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="D301" s="23" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="E301" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F301" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G301" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H301" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B302" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C302" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D302" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B302" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C302" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="D302" s="23" t="s">
-        <v>343</v>
-      </c>
       <c r="E302" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F302" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G302" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H302" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B303" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C303" s="23" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D303" s="23" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E303" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F303" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G303" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H303" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B304" s="22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C304" s="23" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="E304" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F304" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G304" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H304" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="14" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D305" s="16" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F305" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G305" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H305" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
@@ -8766,366 +8793,366 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="21" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B309" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C309" s="23" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D309" s="23" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E309" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F309" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G309" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H309" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B310" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C310" s="23" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D310" s="23" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E310" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F310" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G310" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H310" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B311" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C311" s="23" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="E311" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F311" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G311" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H311" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B312" s="22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C312" s="23" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="D312" s="23" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="E312" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F312" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G312" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H312" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B313" s="22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="D313" s="23" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="E313" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F313" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G313" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H313" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B314" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="D314" s="23" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="E314" s="23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F314" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G314" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H314" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B315" s="22" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C315" s="23" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="D315" s="23" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="E315" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F315" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G315" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H315" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B316" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C316" s="23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D316" s="23" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E316" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F316" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G316" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H316" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B317" s="22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C317" s="23" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="D317" s="23" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="E317" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F317" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G317" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H317" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B318" s="22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C318" s="23" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="D318" s="23" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="E318" s="23" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F318" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G318" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H318" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="21" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B319" s="22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C319" s="23" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="D319" s="23" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E319" s="23" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F319" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G319" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H319" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="14" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F320" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G320" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H320" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="14" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D321" s="16" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="F321" s="16" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="G321" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H321" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="14" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D322" s="16" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="F322" s="16" t="s">
-        <v>11</v>
+        <v>349</v>
       </c>
       <c r="G322" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H322" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FCYBL Rankings.xlsx
+++ b/docs/FCYBL Rankings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\fcybl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362E74A5-ABAC-4121-B192-58870CE8258C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FBA361-4AEC-42B2-892E-203195F71428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="20760" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="401">
   <si>
     <t>B5-D1</t>
   </si>
@@ -441,51 +441,6 @@
     <t>B8-D1</t>
   </si>
   <si>
-    <t>MANASSAS PARK - VICK</t>
-  </si>
-  <si>
-    <t>MCLEAN - LEGGETT</t>
-  </si>
-  <si>
-    <t>VIENNA - MARSDEN</t>
-  </si>
-  <si>
-    <t>RESTON - LANSDOWNE</t>
-  </si>
-  <si>
-    <t>SOUTH COUNTY - JACKSON</t>
-  </si>
-  <si>
-    <t>SPRINGFIELD - ROBINSON</t>
-  </si>
-  <si>
-    <t>MCLEAN - TALLENT</t>
-  </si>
-  <si>
-    <t>BURKE - SHOUMAN</t>
-  </si>
-  <si>
-    <t>TURNPIKE - DONOVAN</t>
-  </si>
-  <si>
-    <t>CYA - LEE</t>
-  </si>
-  <si>
-    <t>ARLINGTON - DAVIS</t>
-  </si>
-  <si>
-    <t>LEE DISTRICT - MCMINN</t>
-  </si>
-  <si>
-    <t>GREAT FALLS - KRAWCZYK</t>
-  </si>
-  <si>
-    <t>FORT BELVOIR - MILES</t>
-  </si>
-  <si>
-    <t>GAINESVILLE - PAGE</t>
-  </si>
-  <si>
     <t>B8-D2</t>
   </si>
   <si>
@@ -1237,9 +1192,6 @@
   </si>
   <si>
     <t>0-13-0</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
   <si>
     <t>4-6-0</t>
@@ -1728,7 +1680,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1749,7 +1701,7 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1760,7 +1712,7 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1771,18 +1723,18 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1824,16 +1776,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>10</v>
@@ -1850,16 +1802,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>10</v>
@@ -1876,16 +1828,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>10</v>
@@ -1902,16 +1854,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>10</v>
@@ -1928,16 +1880,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>10</v>
@@ -1954,19 +1906,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>10</v>
@@ -1980,19 +1932,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>10</v>
@@ -2006,19 +1958,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>10</v>
@@ -2032,19 +1984,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>10</v>
@@ -2058,19 +2010,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>10</v>
@@ -2084,19 +2036,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>10</v>
@@ -2110,16 +2062,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>10</v>
@@ -2173,16 +2125,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>10</v>
@@ -2199,16 +2151,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>10</v>
@@ -2225,16 +2177,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>10</v>
@@ -2251,16 +2203,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>10</v>
@@ -2277,16 +2229,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>10</v>
@@ -2303,16 +2255,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>10</v>
@@ -2329,22 +2281,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>10</v>
@@ -2355,22 +2307,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="G33" s="23" t="s">
         <v>10</v>
@@ -2381,25 +2333,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="H34" s="23" t="s">
         <v>10</v>
@@ -2407,25 +2359,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="H35" s="23" t="s">
         <v>10</v>
@@ -2433,19 +2385,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>10</v>
@@ -2459,19 +2411,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>10</v>
@@ -2485,22 +2437,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>10</v>
@@ -2511,22 +2463,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>10</v>
@@ -2574,16 +2526,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>10</v>
@@ -2600,19 +2552,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>10</v>
@@ -2626,19 +2578,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>10</v>
@@ -2652,19 +2604,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>10</v>
@@ -2678,19 +2630,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>10</v>
@@ -2704,16 +2656,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>10</v>
@@ -2730,16 +2682,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>10</v>
@@ -2756,16 +2708,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B50" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>10</v>
@@ -2782,16 +2734,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>10</v>
@@ -2808,16 +2760,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>10</v>
@@ -2834,16 +2786,16 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>10</v>
@@ -2860,16 +2812,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>10</v>
@@ -2923,16 +2875,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B58" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>10</v>
@@ -2949,19 +2901,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B59" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>10</v>
@@ -2975,19 +2927,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>10</v>
@@ -3001,16 +2953,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>10</v>
@@ -3027,19 +2979,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F62" s="23" t="s">
         <v>10</v>
@@ -3053,19 +3005,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>56</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>10</v>
@@ -3079,16 +3031,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>10</v>
@@ -3105,16 +3057,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>10</v>
@@ -3131,16 +3083,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>10</v>
@@ -3157,16 +3109,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B67" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>10</v>
@@ -3183,16 +3135,16 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>10</v>
@@ -3209,16 +3161,16 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>10</v>
@@ -3235,16 +3187,16 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>10</v>
@@ -3261,16 +3213,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>10</v>
@@ -3287,16 +3239,16 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>10</v>
@@ -3350,16 +3302,16 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>10</v>
@@ -3376,16 +3328,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>10</v>
@@ -3402,16 +3354,16 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B78" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>10</v>
@@ -3428,16 +3380,16 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>10</v>
@@ -3454,16 +3406,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B80" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>10</v>
@@ -3480,16 +3432,16 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>10</v>
@@ -3506,16 +3458,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B82" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>10</v>
@@ -3532,16 +3484,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B83" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>10</v>
@@ -3558,16 +3510,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B84" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>10</v>
@@ -3584,16 +3536,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B85" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E85" s="23" t="s">
         <v>10</v>
@@ -3610,16 +3562,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>10</v>
@@ -3636,16 +3588,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>10</v>
@@ -3662,16 +3614,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>10</v>
@@ -3725,16 +3677,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B92" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>10</v>
@@ -3751,16 +3703,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B93" s="22" t="s">
         <v>82</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>10</v>
@@ -3777,16 +3729,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B94" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>10</v>
@@ -3803,16 +3755,16 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B95" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>10</v>
@@ -3829,16 +3781,16 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B96" s="22" t="s">
         <v>85</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>10</v>
@@ -3855,16 +3807,16 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B97" s="22" t="s">
         <v>87</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>10</v>
@@ -3881,16 +3833,16 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B98" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>10</v>
@@ -3907,19 +3859,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B99" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>10</v>
@@ -3933,19 +3885,19 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B100" s="22" t="s">
         <v>86</v>
       </c>
       <c r="C100" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E100" s="23" t="s">
         <v>304</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>319</v>
       </c>
       <c r="F100" s="23" t="s">
         <v>10</v>
@@ -3959,16 +3911,16 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B101" s="22" t="s">
         <v>89</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>10</v>
@@ -3985,16 +3937,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B102" s="22" t="s">
         <v>91</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E102" s="23" t="s">
         <v>10</v>
@@ -4011,16 +3963,16 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>10</v>
@@ -4037,16 +3989,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>10</v>
@@ -4063,7 +4015,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>94</v>
@@ -4072,7 +4024,7 @@
         <v>136</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>10</v>
@@ -4126,16 +4078,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B109" s="22" t="s">
         <v>96</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>10</v>
@@ -4152,19 +4104,19 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B110" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>10</v>
@@ -4178,19 +4130,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B111" s="22" t="s">
         <v>98</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F111" s="23" t="s">
         <v>10</v>
@@ -4204,19 +4156,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>100</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F112" s="23" t="s">
         <v>10</v>
@@ -4230,19 +4182,19 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>99</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F113" s="23" t="s">
         <v>10</v>
@@ -4256,16 +4208,16 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B114" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>10</v>
@@ -4282,19 +4234,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B115" s="22" t="s">
         <v>103</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F115" s="23" t="s">
         <v>10</v>
@@ -4308,19 +4260,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B116" s="22" t="s">
         <v>102</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F116" s="23" t="s">
         <v>10</v>
@@ -4334,19 +4286,19 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B117" s="22" t="s">
         <v>104</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F117" s="23" t="s">
         <v>10</v>
@@ -4360,16 +4312,16 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B118" s="22" t="s">
         <v>105</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>10</v>
@@ -4386,19 +4338,19 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F119" s="16" t="s">
         <v>10</v>
@@ -4412,19 +4364,19 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F120" s="16" t="s">
         <v>10</v>
@@ -4438,16 +4390,16 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>10</v>
@@ -4501,19 +4453,19 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B125" s="22" t="s">
         <v>111</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E125" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F125" s="23" t="s">
         <v>10</v>
@@ -4527,19 +4479,19 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B126" s="22" t="s">
         <v>110</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E126" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F126" s="23" t="s">
         <v>10</v>
@@ -4553,16 +4505,16 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B127" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E127" s="23" t="s">
         <v>10</v>
@@ -4579,16 +4531,16 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B128" s="22" t="s">
         <v>112</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E128" s="23" t="s">
         <v>10</v>
@@ -4605,16 +4557,16 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B129" s="22" t="s">
         <v>114</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E129" s="23" t="s">
         <v>10</v>
@@ -4631,16 +4583,16 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B130" s="22" t="s">
         <v>115</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="E130" s="23" t="s">
         <v>10</v>
@@ -4657,16 +4609,16 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B131" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E131" s="23" t="s">
         <v>10</v>
@@ -4683,19 +4635,19 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B132" s="22" t="s">
         <v>120</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F132" s="23" t="s">
         <v>10</v>
@@ -4709,19 +4661,19 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B133" s="22" t="s">
         <v>117</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F133" s="23" t="s">
         <v>10</v>
@@ -4735,16 +4687,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="21" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B134" s="22" t="s">
         <v>118</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E134" s="23" t="s">
         <v>10</v>
@@ -4761,16 +4713,16 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="21" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B135" s="22" t="s">
         <v>119</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E135" s="23" t="s">
         <v>10</v>
@@ -4787,16 +4739,16 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B136" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E136" s="16" t="s">
         <v>10</v>
@@ -4813,16 +4765,16 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B137" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E137" s="16" t="s">
         <v>10</v>
@@ -4839,7 +4791,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>123</v>
@@ -4848,7 +4800,7 @@
         <v>136</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E138" s="16" t="s">
         <v>10</v>
@@ -4902,16 +4854,16 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B142" s="22" t="s">
         <v>125</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E142" s="23" t="s">
         <v>10</v>
@@ -4928,16 +4880,16 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B143" s="22" t="s">
         <v>126</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="E143" s="23" t="s">
         <v>10</v>
@@ -4954,16 +4906,16 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B144" s="22" t="s">
         <v>127</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E144" s="23" t="s">
         <v>10</v>
@@ -4980,16 +4932,16 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B145" s="22" t="s">
         <v>128</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E145" s="23" t="s">
         <v>10</v>
@@ -5006,16 +4958,16 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B146" s="22" t="s">
         <v>129</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E146" s="23" t="s">
         <v>10</v>
@@ -5032,16 +4984,16 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B147" s="22" t="s">
         <v>130</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E147" s="23" t="s">
         <v>10</v>
@@ -5058,16 +5010,16 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B148" s="22" t="s">
         <v>131</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E148" s="23" t="s">
         <v>10</v>
@@ -5084,19 +5036,19 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B149" s="22" t="s">
         <v>132</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E149" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F149" s="23" t="s">
         <v>10</v>
@@ -5110,19 +5062,19 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B150" s="15" t="s">
         <v>133</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F150" s="16" t="s">
         <v>10</v>
@@ -5136,16 +5088,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B151" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E151" s="16" t="s">
         <v>10</v>
@@ -5162,16 +5114,16 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B152" s="15" t="s">
         <v>135</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E152" s="16" t="s">
         <v>10</v>
@@ -5224,450 +5176,178 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="B156" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C156" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="D156" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="E156" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H156" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A156" s="21"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="23"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="B157" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C157" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="D157" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="E157" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H157" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A157" s="21"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="B158" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C158" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="D158" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="E158" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H158" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A158" s="21"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="23"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B159" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="D159" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="E159" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H159" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A159" s="21"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="23"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B160" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C160" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="D160" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="E160" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="F160" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="G160" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H160" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A160" s="21"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="B161" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C161" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="D161" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="E161" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="F161" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="G161" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H161" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A161" s="21"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="B162" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C162" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="D162" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="E162" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H162" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A162" s="21"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="23"/>
+      <c r="H162" s="23"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="B163" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C163" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="D163" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="E163" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="F163" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H163" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A163" s="21"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="B164" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C164" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="D164" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="E164" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="F164" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H164" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A164" s="21"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="B165" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C165" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="D165" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="E165" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H165" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A165" s="21"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="23"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="B166" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C166" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D166" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E166" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H166" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A166" s="21"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
+      <c r="G166" s="23"/>
+      <c r="H166" s="23"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="B167" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C167" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="D167" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="E167" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F167" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H167" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A167" s="21"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="23"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="B168" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C168" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="D168" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="E168" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="F168" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H168" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="A168" s="21"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="23"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="D169" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F169" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H169" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="A169" s="14"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="16"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="D170" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="E170" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="F170" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H170" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="A170" s="14"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="16"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="D171" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F171" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H171" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="A171" s="14"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="16"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D172" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H172" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="A172" s="14"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
     </row>
     <row r="174" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -5704,16 +5384,16 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>10</v>
@@ -5730,16 +5410,16 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B177" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>10</v>
@@ -5756,19 +5436,19 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B178" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E178" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F178" s="23" t="s">
         <v>10</v>
@@ -5782,19 +5462,19 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E179" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F179" s="23" t="s">
         <v>10</v>
@@ -5808,19 +5488,19 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E180" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F180" s="23" t="s">
         <v>10</v>
@@ -5834,19 +5514,19 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E181" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F181" s="23" t="s">
         <v>10</v>
@@ -5860,19 +5540,19 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E182" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F182" s="23" t="s">
         <v>10</v>
@@ -5886,19 +5566,19 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B183" s="22" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C183" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D183" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E183" s="23" t="s">
         <v>304</v>
-      </c>
-      <c r="D183" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E183" s="23" t="s">
-        <v>319</v>
       </c>
       <c r="F183" s="23" t="s">
         <v>10</v>
@@ -5912,22 +5592,22 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E184" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="G184" s="23" t="s">
         <v>10</v>
@@ -5938,22 +5618,22 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="21" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E185" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F185" s="23" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G185" s="23" t="s">
         <v>10</v>
@@ -5964,22 +5644,22 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="21" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B186" s="22" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E186" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F186" s="23" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="G186" s="23" t="s">
         <v>10</v>
@@ -5990,19 +5670,19 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E187" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F187" s="23" t="s">
         <v>10</v>
@@ -6016,19 +5696,19 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F188" s="16" t="s">
         <v>10</v>
@@ -6042,19 +5722,19 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F189" s="16" t="s">
         <v>10</v>
@@ -6068,19 +5748,19 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F190" s="16" t="s">
         <v>10</v>
@@ -6094,7 +5774,7 @@
     </row>
     <row r="192" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
@@ -6131,16 +5811,16 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B194" s="22" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E194" s="23" t="s">
         <v>10</v>
@@ -6157,16 +5837,16 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B195" s="22" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C195" s="23" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E195" s="23" t="s">
         <v>10</v>
@@ -6183,16 +5863,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C196" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>10</v>
@@ -6209,19 +5889,19 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B197" s="22" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E197" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F197" s="23" t="s">
         <v>10</v>
@@ -6235,19 +5915,19 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C198" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F198" s="23" t="s">
         <v>10</v>
@@ -6261,19 +5941,19 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C199" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D199" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E199" s="23" t="s">
         <v>304</v>
-      </c>
-      <c r="D199" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E199" s="23" t="s">
-        <v>319</v>
       </c>
       <c r="F199" s="23" t="s">
         <v>10</v>
@@ -6287,16 +5967,16 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C200" s="23" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E200" s="23" t="s">
         <v>10</v>
@@ -6313,16 +5993,16 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C201" s="23" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>10</v>
@@ -6339,16 +6019,16 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E202" s="16" t="s">
         <v>10</v>
@@ -6365,7 +6045,7 @@
     </row>
     <row r="204" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
@@ -6402,22 +6082,22 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C206" s="23" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E206" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F206" s="23" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="G206" s="23" t="s">
         <v>10</v>
@@ -6428,22 +6108,22 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C207" s="23" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E207" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F207" s="23" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G207" s="23" t="s">
         <v>10</v>
@@ -6454,16 +6134,16 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C208" s="23" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="E208" s="23" t="s">
         <v>10</v>
@@ -6480,16 +6160,16 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C209" s="23" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E209" s="23" t="s">
         <v>10</v>
@@ -6506,19 +6186,19 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B210" s="22" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C210" s="23" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="E210" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F210" s="23" t="s">
         <v>10</v>
@@ -6532,19 +6212,19 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C211" s="23" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="E211" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F211" s="23" t="s">
         <v>10</v>
@@ -6558,19 +6238,19 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B212" s="22" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C212" s="23" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E212" s="23" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F212" s="23" t="s">
         <v>10</v>
@@ -6584,19 +6264,19 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B213" s="22" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C213" s="23" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E213" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F213" s="23" t="s">
         <v>10</v>
@@ -6610,19 +6290,19 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="14" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F214" s="16" t="s">
         <v>10</v>
@@ -6636,16 +6316,16 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E215" s="16" t="s">
         <v>10</v>
@@ -6662,7 +6342,7 @@
     </row>
     <row r="217" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
@@ -6699,22 +6379,22 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B219" s="22" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C219" s="23" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E219" s="23" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F219" s="23" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="G219" s="23" t="s">
         <v>10</v>
@@ -6725,22 +6405,22 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C220" s="23" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E220" s="23" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F220" s="23" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G220" s="23" t="s">
         <v>10</v>
@@ -6751,19 +6431,19 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B221" s="22" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C221" s="23" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="E221" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F221" s="23" t="s">
         <v>10</v>
@@ -6777,19 +6457,19 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B222" s="22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C222" s="23" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="E222" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F222" s="23" t="s">
         <v>10</v>
@@ -6803,16 +6483,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B223" s="22" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E223" s="23" t="s">
         <v>10</v>
@@ -6829,16 +6509,16 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B224" s="22" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C224" s="23" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E224" s="23" t="s">
         <v>10</v>
@@ -6855,22 +6535,22 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B225" s="22" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C225" s="23" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="E225" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F225" s="23" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="G225" s="23" t="s">
         <v>10</v>
@@ -6881,22 +6561,22 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B226" s="22" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C226" s="23" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="E226" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F226" s="23" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="G226" s="23" t="s">
         <v>10</v>
@@ -6907,22 +6587,22 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="E227" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F227" s="23" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="G227" s="23" t="s">
         <v>10</v>
@@ -6933,19 +6613,19 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="21" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B228" s="22" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E228" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F228" s="23" t="s">
         <v>10</v>
@@ -6959,19 +6639,19 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="21" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B229" s="22" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E229" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F229" s="23" t="s">
         <v>10</v>
@@ -6985,16 +6665,16 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D230" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E230" s="16" t="s">
         <v>10</v>
@@ -7011,16 +6691,16 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D231" s="16" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="E231" s="16" t="s">
         <v>10</v>
@@ -7037,16 +6717,16 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D232" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E232" s="16" t="s">
         <v>10</v>
@@ -7063,7 +6743,7 @@
     </row>
     <row r="234" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
@@ -7100,16 +6780,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B236" s="22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C236" s="23" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="E236" s="23" t="s">
         <v>10</v>
@@ -7126,16 +6806,16 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B237" s="22" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E237" s="23" t="s">
         <v>10</v>
@@ -7152,16 +6832,16 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B238" s="22" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C238" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D238" s="23" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E238" s="23" t="s">
         <v>10</v>
@@ -7178,16 +6858,16 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B239" s="22" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C239" s="23" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E239" s="23" t="s">
         <v>10</v>
@@ -7204,16 +6884,16 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B240" s="22" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C240" s="23" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E240" s="23" t="s">
         <v>10</v>
@@ -7230,19 +6910,19 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B241" s="22" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C241" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E241" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F241" s="23" t="s">
         <v>10</v>
@@ -7256,19 +6936,19 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B242" s="22" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C242" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D242" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E242" s="23" t="s">
         <v>304</v>
-      </c>
-      <c r="D242" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E242" s="23" t="s">
-        <v>319</v>
       </c>
       <c r="F242" s="23" t="s">
         <v>10</v>
@@ -7282,16 +6962,16 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B243" s="22" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C243" s="23" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D243" s="23" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E243" s="23" t="s">
         <v>10</v>
@@ -7308,16 +6988,16 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="14" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D244" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E244" s="16" t="s">
         <v>10</v>
@@ -7334,7 +7014,7 @@
     </row>
     <row r="246" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -7371,16 +7051,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B248" s="22" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E248" s="23" t="s">
         <v>10</v>
@@ -7397,19 +7077,19 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B249" s="22" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C249" s="23" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E249" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F249" s="23" t="s">
         <v>10</v>
@@ -7423,19 +7103,19 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B250" s="22" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C250" s="23" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E250" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F250" s="23" t="s">
         <v>10</v>
@@ -7449,16 +7129,16 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B251" s="22" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C251" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E251" s="23" t="s">
         <v>10</v>
@@ -7475,25 +7155,25 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C252" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D252" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="E252" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D252" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="E252" s="23" t="s">
-        <v>307</v>
-      </c>
       <c r="F252" s="23" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="G252" s="23" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H252" s="23" t="s">
         <v>10</v>
@@ -7501,25 +7181,25 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B253" s="22" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C253" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D253" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="E253" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D253" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="E253" s="23" t="s">
-        <v>307</v>
-      </c>
       <c r="F253" s="23" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="G253" s="23" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H253" s="23" t="s">
         <v>10</v>
@@ -7527,19 +7207,19 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C254" s="23" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E254" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F254" s="23" t="s">
         <v>10</v>
@@ -7553,16 +7233,16 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C255" s="23" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E255" s="23" t="s">
         <v>10</v>
@@ -7579,16 +7259,16 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C256" s="23" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="E256" s="23" t="s">
         <v>10</v>
@@ -7605,16 +7285,16 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="21" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B257" s="22" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C257" s="23" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E257" s="23" t="s">
         <v>10</v>
@@ -7631,16 +7311,16 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="21" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B258" s="22" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C258" s="23" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E258" s="23" t="s">
         <v>10</v>
@@ -7657,16 +7337,16 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="21" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C259" s="23" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E259" s="23" t="s">
         <v>10</v>
@@ -7683,16 +7363,16 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="14" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E260" s="16" t="s">
         <v>10</v>
@@ -7709,16 +7389,16 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="14" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E261" s="16" t="s">
         <v>10</v>
@@ -7735,22 +7415,22 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="14" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C262" s="16" t="s">
         <v>136</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F262" s="16" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="G262" s="16" t="s">
         <v>10</v>
@@ -7761,22 +7441,22 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="14" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C263" s="16" t="s">
         <v>136</v>
       </c>
       <c r="D263" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F263" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G263" s="16" t="s">
         <v>10</v>
@@ -7787,7 +7467,7 @@
     </row>
     <row r="265" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
@@ -7824,16 +7504,16 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C267" s="23" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D267" s="23" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E267" s="23" t="s">
         <v>10</v>
@@ -7850,19 +7530,19 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B268" s="22" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C268" s="23" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E268" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F268" s="23" t="s">
         <v>10</v>
@@ -7876,19 +7556,19 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B269" s="22" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C269" s="23" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D269" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E269" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F269" s="23" t="s">
         <v>10</v>
@@ -7902,19 +7582,19 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B270" s="22" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C270" s="23" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E270" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F270" s="23" t="s">
         <v>10</v>
@@ -7928,19 +7608,19 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B271" s="22" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C271" s="23" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D271" s="23" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E271" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F271" s="23" t="s">
         <v>10</v>
@@ -7954,22 +7634,22 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B272" s="22" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C272" s="23" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E272" s="23" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F272" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G272" s="23" t="s">
         <v>10</v>
@@ -7980,22 +7660,22 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B273" s="22" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C273" s="23" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D273" s="23" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E273" s="23" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F273" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="G273" s="23" t="s">
         <v>10</v>
@@ -8006,19 +7686,19 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C274" s="23" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E274" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F274" s="23" t="s">
         <v>10</v>
@@ -8032,19 +7712,19 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B275" s="22" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C275" s="23" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D275" s="23" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E275" s="23" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="F275" s="23" t="s">
         <v>10</v>
@@ -8058,16 +7738,16 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="21" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B276" s="22" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C276" s="23" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E276" s="23" t="s">
         <v>10</v>
@@ -8084,16 +7764,16 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="14" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E277" s="16" t="s">
         <v>10</v>
@@ -8110,16 +7790,16 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="14" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E278" s="16" t="s">
         <v>10</v>
@@ -8136,16 +7816,16 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="14" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C279" s="16" t="s">
         <v>136</v>
       </c>
       <c r="D279" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E279" s="16" t="s">
         <v>10</v>
@@ -8162,7 +7842,7 @@
     </row>
     <row r="281" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
@@ -8199,16 +7879,16 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B283" s="22" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C283" s="23" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E283" s="23" t="s">
         <v>10</v>
@@ -8225,16 +7905,16 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D284" s="23" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E284" s="23" t="s">
         <v>10</v>
@@ -8251,16 +7931,16 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C285" s="23" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D285" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E285" s="23" t="s">
         <v>10</v>
@@ -8277,16 +7957,16 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B286" s="22" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C286" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E286" s="23" t="s">
         <v>10</v>
@@ -8303,16 +7983,16 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B287" s="22" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C287" s="23" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="D287" s="23" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="E287" s="23" t="s">
         <v>10</v>
@@ -8329,16 +8009,16 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C288" s="23" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E288" s="23" t="s">
         <v>10</v>
@@ -8355,19 +8035,19 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C289" s="23" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E289" s="23" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F289" s="23" t="s">
         <v>10</v>
@@ -8381,19 +8061,19 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B290" s="22" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C290" s="23" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D290" s="23" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E290" s="23" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F290" s="23" t="s">
         <v>10</v>
@@ -8407,19 +8087,19 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D291" s="16" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F291" s="16" t="s">
         <v>10</v>
@@ -8433,16 +8113,16 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="14" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E292" s="16" t="s">
         <v>10</v>
@@ -8459,16 +8139,16 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="14" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E293" s="16" t="s">
         <v>10</v>
@@ -8485,7 +8165,7 @@
     </row>
     <row r="295" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="9"/>
@@ -8522,16 +8202,16 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B297" s="22" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C297" s="23" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D297" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E297" s="23" t="s">
         <v>10</v>
@@ -8548,16 +8228,16 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B298" s="22" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D298" s="23" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E298" s="23" t="s">
         <v>10</v>
@@ -8574,16 +8254,16 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B299" s="22" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C299" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D299" s="23" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E299" s="23" t="s">
         <v>10</v>
@@ -8600,16 +8280,16 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B300" s="22" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C300" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D300" s="23" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E300" s="23" t="s">
         <v>10</v>
@@ -8626,16 +8306,16 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B301" s="22" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C301" s="23" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D301" s="23" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E301" s="23" t="s">
         <v>10</v>
@@ -8652,19 +8332,19 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B302" s="22" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C302" s="23" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D302" s="23" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E302" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F302" s="23" t="s">
         <v>10</v>
@@ -8678,19 +8358,19 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B303" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C303" s="23" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D303" s="23" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E303" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F303" s="23" t="s">
         <v>10</v>
@@ -8704,16 +8384,16 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B304" s="22" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C304" s="23" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E304" s="23" t="s">
         <v>10</v>
@@ -8730,16 +8410,16 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="14" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D305" s="16" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E305" s="16" t="s">
         <v>10</v>
@@ -8756,7 +8436,7 @@
     </row>
     <row r="307" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
@@ -8793,19 +8473,19 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="21" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B309" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C309" s="23" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D309" s="23" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E309" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F309" s="23" t="s">
         <v>10</v>
@@ -8819,19 +8499,19 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="21" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B310" s="22" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C310" s="23" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D310" s="23" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E310" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F310" s="23" t="s">
         <v>10</v>
@@ -8845,19 +8525,19 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="21" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B311" s="22" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C311" s="23" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E311" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F311" s="23" t="s">
         <v>10</v>
@@ -8871,19 +8551,19 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="21" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B312" s="22" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C312" s="23" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D312" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E312" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F312" s="23" t="s">
         <v>10</v>
@@ -8897,19 +8577,19 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="21" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B313" s="22" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D313" s="23" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E313" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F313" s="23" t="s">
         <v>10</v>
@@ -8923,19 +8603,19 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B314" s="22" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D314" s="23" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E314" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F314" s="23" t="s">
         <v>10</v>
@@ -8949,16 +8629,16 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="21" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B315" s="22" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C315" s="23" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D315" s="23" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E315" s="23" t="s">
         <v>10</v>
@@ -8975,16 +8655,16 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="21" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B316" s="22" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C316" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D316" s="23" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E316" s="23" t="s">
         <v>10</v>
@@ -9001,16 +8681,16 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B317" s="22" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C317" s="23" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D317" s="23" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E317" s="23" t="s">
         <v>10</v>
@@ -9027,19 +8707,19 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="21" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B318" s="22" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C318" s="23" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D318" s="23" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E318" s="23" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F318" s="23" t="s">
         <v>10</v>
@@ -9053,19 +8733,19 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="21" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B319" s="22" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C319" s="23" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D319" s="23" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E319" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F319" s="23" t="s">
         <v>10</v>
@@ -9079,16 +8759,16 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="14" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E320" s="16" t="s">
         <v>10</v>
@@ -9105,22 +8785,22 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="14" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D321" s="16" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F321" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G321" s="16" t="s">
         <v>10</v>
@@ -9131,22 +8811,22 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="14" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D322" s="16" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F322" s="16" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="G322" s="16" t="s">
         <v>10</v>
